--- a/Data/Input/netopyri_chynov.xlsx
+++ b/Data/Input/netopyri_chynov.xlsx
@@ -23,10 +23,34 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>František Krejča</author>
     <author>FXK</author>
-    <author>František Krejča</author>
   </authors>
   <commentList>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Anděra, Zbytovský:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+7. 12. 1988</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
@@ -37,17 +61,17 @@
             <rFont val="Tahoma"/>
             <charset val="238"/>
           </rPr>
-          <t>J:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-15. 2. 1977</t>
+          <t>Anděra, Zbytovský:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+16. 2. 1989</t>
         </r>
       </text>
     </comment>
@@ -61,17 +85,65 @@
             <rFont val="Tahoma"/>
             <charset val="238"/>
           </rPr>
-          <t>J:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-12. 12. 1977</t>
+          <t>Anděra, Zbytovský:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+20. 12. 1989</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Anděra, Zbytovský:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+11. 2. 1990</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Anděra, Zbytovský:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+10. 12. 1990</t>
         </r>
       </text>
     </comment>
@@ -95,7 +167,31 @@
             <charset val="238"/>
           </rPr>
           <t xml:space="preserve">
-11. 1. 1979</t>
+21. 2. 1991</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Anděra, Zbytovský:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+17. 12. 1991</t>
         </r>
       </text>
     </comment>
@@ -109,17 +205,41 @@
             <rFont val="Tahoma"/>
             <charset val="238"/>
           </rPr>
-          <t>J:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-21. 2. 1980</t>
+          <t>Anděra, Zbytovský:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+15. 2. 1992</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Anděra, Zbytovský:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+9. 12. 1992</t>
         </r>
       </text>
     </comment>
@@ -133,17 +253,17 @@
             <rFont val="Tahoma"/>
             <charset val="238"/>
           </rPr>
-          <t>J:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-10. 2. 1981</t>
+          <t>Anděra, Zbytovský:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+11. 2. 1993</t>
         </r>
       </text>
     </comment>
@@ -157,41 +277,41 @@
             <rFont val="Tahoma"/>
             <charset val="238"/>
           </rPr>
-          <t>Anděra, Zbytovský:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-17. 12. 1981</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C8" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Anděra, Zbytovský:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-13. 2. 1982</t>
+          <t>FXK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+13. 12. 1993</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Anděra, Zbytovský, Krejča:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+19. 2. 1994</t>
         </r>
       </text>
     </comment>
@@ -205,80 +325,65 @@
             <rFont val="Tahoma"/>
             <charset val="238"/>
           </rPr>
-          <t>Anděra, Zbytovský:
-16. 12. 1982</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C9" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Anděra Zbytovský:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-24. 2. 1983</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B10" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Anděra, Zbytovský:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-21. 12. 1983</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C10" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Anděra, Zbytovský:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-25. 2. 1984</t>
+          <t>FXK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+11. 1. 1995</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Anděra, Zbytovský, Krejča:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+9. 2. 1995</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Anděra, Zbytovský, Krejča:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+6. 2. 1996</t>
         </r>
       </text>
     </comment>
@@ -292,257 +397,233 @@
             <rFont val="Tahoma"/>
             <charset val="238"/>
           </rPr>
-          <t>Anděra, Zbytovský:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-15. 12. 1984</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C11" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Anděra, Zbytovský:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-27. 2. 1985</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B12" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Anděra, Zbytovský:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-15. 12. 1985</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C12" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Anděra, Zbytovský:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-19. 2. 1986</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B13" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Anděra, Zbytovský:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-22. 12. 1986</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C13" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Anděra, Zbytovský:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-26. 2. 1987</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B14" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Anděra, Zbytovský:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-16. 12. 1987</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C14" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Anděra, Zbytovský:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-17. 2. 1988</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B15" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Anděra, Zbytovský:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-7. 12. 1988</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C15" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Anděra, Zbytovský:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-16. 2. 1989</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B16" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Anděra, Zbytovský:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-20. 12. 1989</t>
+          <t>FXK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+21. 1. 1997</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>František Krejča:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+12. 2. 1997</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Anděra, Zbytovský, Krejča:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+4. 2. 1998</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>František Krejča:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+18. 12. 1998</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Anděra, Zbytovský, Krejča:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+4. 2. 1999</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>František Krejča:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+10. 12. 1999</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Anděra, Zbytovský, Krejča:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+8. 2. 2000</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>František Krejča:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+15. 12. 2000</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Anděra, Zbytovský, Krejča:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+7. 2. 2001</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>František Krejča:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+4. 12. 2001</t>
         </r>
       </text>
     </comment>
@@ -556,41 +637,41 @@
             <rFont val="Tahoma"/>
             <charset val="238"/>
           </rPr>
-          <t>Anděra, Zbytovský:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-11. 2. 1990</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B17" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Anděra, Zbytovský:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-10. 12. 1990</t>
+          <t>FXK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+6. 2. 2002</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>František Krejča:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+12. 12. 2002</t>
         </r>
       </text>
     </comment>
@@ -604,41 +685,41 @@
             <rFont val="Tahoma"/>
             <charset val="238"/>
           </rPr>
-          <t>Anděra, Zbytovský:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-21. 2. 1991</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B18" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Anděra, Zbytovský:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-17. 12. 1991</t>
+          <t>FXK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+4. 2. 2003</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>František Krejča:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+21. 12. 2003</t>
         </r>
       </text>
     </comment>
@@ -652,65 +733,65 @@
             <rFont val="Tahoma"/>
             <charset val="238"/>
           </rPr>
-          <t>Anděra, Zbytovský:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-15. 2. 1992</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B19" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Anděra, Zbytovský:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-9. 12. 1992</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C19" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Anděra, Zbytovský:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-11. 2. 1993</t>
+          <t>FXK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+2. 2. 2004</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>František Krejča:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+19. 12. 2004</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>František Krejča:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+7. 2. 2005</t>
         </r>
       </text>
     </comment>
@@ -724,6 +805,174 @@
             <rFont val="Tahoma"/>
             <charset val="238"/>
           </rPr>
+          <t>František Krejča:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+13. 12. 2005</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Anděra, Zbytovský, Krejča:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve"> 7. 2. 2006</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>František Krejča:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+19. 12. 2006</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>František Krejča:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+6.2.2007</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>František Krejča:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+19.12.2007</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>František Krejča:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+12. 2. 2008</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>František Krejča:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+17. 12. 2008</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C23" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
           <t>FXK:</t>
         </r>
         <r>
@@ -734,35 +983,11 @@
             <charset val="238"/>
           </rPr>
           <t xml:space="preserve">
-13. 12. 1993</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C20" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Anděra, Zbytovský, Krejča:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-19. 2. 1994</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B21" authorId="0" shapeId="0">
+10. 2. 2009</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B24" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -782,59 +1007,11 @@
             <charset val="238"/>
           </rPr>
           <t xml:space="preserve">
-11. 1. 1995</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C21" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Anděra, Zbytovský, Krejča:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-9. 2. 1995</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C22" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Anděra, Zbytovský, Krejča:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-6. 2. 1996</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B23" authorId="0" shapeId="0">
+21. 12. 2009</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C24" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -854,55 +1031,7 @@
             <charset val="238"/>
           </rPr>
           <t xml:space="preserve">
-21. 1. 1997</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C23" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>František Krejča:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-12. 2. 1997</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C24" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Anděra, Zbytovský, Krejča:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-4. 2. 1998</t>
+3. 2. 2010</t>
         </r>
       </text>
     </comment>
@@ -916,17 +1045,17 @@
             <rFont val="Tahoma"/>
             <charset val="238"/>
           </rPr>
-          <t>František Krejča:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-18. 12. 1998</t>
+          <t>FXK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+13. 12. 2010</t>
         </r>
       </text>
     </comment>
@@ -940,17 +1069,17 @@
             <rFont val="Tahoma"/>
             <charset val="238"/>
           </rPr>
-          <t>Anděra, Zbytovský, Krejča:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-4. 2. 1999</t>
+          <t>FXK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+8. 2. 2011</t>
         </r>
       </text>
     </comment>
@@ -964,17 +1093,17 @@
             <rFont val="Tahoma"/>
             <charset val="238"/>
           </rPr>
-          <t>František Krejča:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-10. 12. 1999</t>
+          <t>FXK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+7. 12. 2011</t>
         </r>
       </text>
     </comment>
@@ -988,17 +1117,17 @@
             <rFont val="Tahoma"/>
             <charset val="238"/>
           </rPr>
-          <t>Anděra, Zbytovský, Krejča:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-8. 2. 2000</t>
+          <t>FXK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+7. 2. 2012</t>
         </r>
       </text>
     </comment>
@@ -1012,17 +1141,17 @@
             <rFont val="Tahoma"/>
             <charset val="238"/>
           </rPr>
-          <t>František Krejča:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-15. 12. 2000</t>
+          <t>FXK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+13. 12. 2012</t>
         </r>
       </text>
     </comment>
@@ -1036,17 +1165,17 @@
             <rFont val="Tahoma"/>
             <charset val="238"/>
           </rPr>
-          <t>Anděra, Zbytovský, Krejča:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-7. 2. 2001</t>
+          <t>FXK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+7. 2. 2013</t>
         </r>
       </text>
     </comment>
@@ -1060,30 +1189,6 @@
             <rFont val="Tahoma"/>
             <charset val="238"/>
           </rPr>
-          <t>František Krejča:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-4. 12. 2001</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C28" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
           <t>FXK:</t>
         </r>
         <r>
@@ -1094,563 +1199,11 @@
             <charset val="238"/>
           </rPr>
           <t xml:space="preserve">
-6. 2. 2002</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B29" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>František Krejča:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-12. 12. 2002</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C29" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>FXK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-4. 2. 2003</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B30" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>František Krejča:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-21. 12. 2003</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C30" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>FXK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-2. 2. 2004</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B31" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>František Krejča:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-19. 12. 2004</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C31" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>František Krejča:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-7. 2. 2005</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B32" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>František Krejča:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-13. 12. 2005</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C32" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Anděra, Zbytovský, Krejča:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve"> 7. 2. 2006</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B33" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>František Krejča:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-19. 12. 2006</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C33" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>František Krejča:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-6.2.2007</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B34" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>František Krejča:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-19.12.2007</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C34" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>František Krejča:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-12. 2. 2008</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B35" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>František Krejča:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-17. 12. 2008</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C35" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>FXK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-10. 2. 2009</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B36" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>FXK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-21. 12. 2009</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C36" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>FXK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-3. 2. 2010</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B37" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>FXK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-13. 12. 2010</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C37" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>FXK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-8. 2. 2011</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B38" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>FXK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-7. 12. 2011</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C38" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>FXK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-7. 2. 2012</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B39" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>FXK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-13. 12. 2012</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C39" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>FXK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-7. 2. 2013</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B40" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>FXK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
 17. 12. 2013</t>
         </r>
       </text>
     </comment>
-    <comment ref="C40" authorId="0" shapeId="0">
+    <comment ref="C28" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1695,7 +1248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B41" authorId="0" shapeId="0">
+    <comment ref="B29" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1740,7 +1293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C41" authorId="0" shapeId="0">
+    <comment ref="C29" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1785,7 +1338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B42" authorId="0" shapeId="0">
+    <comment ref="B30" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1831,7 +1384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C42" authorId="0" shapeId="0">
+    <comment ref="C30" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1876,7 +1429,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B43" authorId="0" shapeId="0">
+    <comment ref="B31" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1924,7 +1477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C43" authorId="0" shapeId="0">
+    <comment ref="C31" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1970,7 +1523,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B44" authorId="0" shapeId="0">
+    <comment ref="B32" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2015,7 +1568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C44" authorId="0" shapeId="0">
+    <comment ref="C32" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2061,7 +1614,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B45" authorId="0" shapeId="0">
+    <comment ref="B33" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2106,7 +1659,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C45" authorId="0" shapeId="0">
+    <comment ref="C33" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2152,7 +1705,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B46" authorId="0" shapeId="0">
+    <comment ref="B34" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2197,7 +1750,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C46" authorId="0" shapeId="0">
+    <comment ref="C34" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2243,7 +1796,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B47" authorId="0" shapeId="0">
+    <comment ref="B35" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2288,7 +1841,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C47" authorId="0" shapeId="0">
+    <comment ref="C35" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2334,7 +1887,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B48" authorId="0" shapeId="0">
+    <comment ref="B36" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2379,7 +1932,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C48" authorId="0" shapeId="0">
+    <comment ref="C36" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2425,7 +1978,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B49" authorId="0" shapeId="0">
+    <comment ref="B37" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2470,7 +2023,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C49" authorId="0" shapeId="0">
+    <comment ref="C37" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2516,7 +2069,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B50" authorId="0" shapeId="0">
+    <comment ref="B38" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2561,7 +2114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C50" authorId="0" shapeId="0">
+    <comment ref="C38" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2607,7 +2160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B51" authorId="0" shapeId="0">
+    <comment ref="B39" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2652,7 +2205,1079 @@
         </r>
       </text>
     </comment>
-    <comment ref="C51" authorId="0" shapeId="0">
+    <comment ref="C39" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>FXK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+7. 2. 2025
+teplota: +3</t>
+        </r>
+        <r>
+          <rPr>
+            <vertAlign val="superscript"/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>o</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">C
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B40" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>FXK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+17. 12. 2013</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C40" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>FXK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+12. 2. 2014
+teplota: 3</t>
+        </r>
+        <r>
+          <rPr>
+            <vertAlign val="superscript"/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>o</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>C</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B41" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>FXK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+15. 12. 2014
+teplota: 11</t>
+        </r>
+        <r>
+          <rPr>
+            <vertAlign val="superscript"/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>o</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>C</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C41" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>FXK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+5. 2. 2015
+teplota: - 4</t>
+        </r>
+        <r>
+          <rPr>
+            <vertAlign val="superscript"/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>o</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>C</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B42" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>FXK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+16. 12. 2015
+teplota: 6
+</t>
+        </r>
+        <r>
+          <rPr>
+            <vertAlign val="superscript"/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>o</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>C</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C42" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>FXK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+2. 2. 2016
+teplota: 10</t>
+        </r>
+        <r>
+          <rPr>
+            <vertAlign val="superscript"/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>o</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>C</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B43" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>FXK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+20. 12. 2016
+teplota: -3</t>
+        </r>
+        <r>
+          <rPr>
+            <vertAlign val="superscript"/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>o</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>C
++ úhyn Plecotu auritus č. TP10595
++ úhyn Eptesicus serotinus
+bez kroužku</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C43" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>FXK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+9. 2. 2017
+teplota: -1</t>
+        </r>
+        <r>
+          <rPr>
+            <vertAlign val="superscript"/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>o</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">C
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B44" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>FXK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+16. 12. 2018
+teplota: -1</t>
+        </r>
+        <r>
+          <rPr>
+            <vertAlign val="superscript"/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>o</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>C</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C44" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>FXK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+7. 2. 2018
+teplota: -2</t>
+        </r>
+        <r>
+          <rPr>
+            <vertAlign val="superscript"/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>o</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">C
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B45" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>FXK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+16. 12. 2018
+teplota: -4</t>
+        </r>
+        <r>
+          <rPr>
+            <vertAlign val="superscript"/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>o</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>C</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C45" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>FXK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+7. 2. 2019
+teplota: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <vertAlign val="superscript"/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>o</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">C
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B46" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>FXK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+14. 12. 2019
+teplota: 2</t>
+        </r>
+        <r>
+          <rPr>
+            <vertAlign val="superscript"/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>o</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>C</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C46" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>FXK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+5. 2. 2020
+teplota: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <vertAlign val="superscript"/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>o</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">C
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B47" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>FXK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+17. 12. 2020
+teplota: 2</t>
+        </r>
+        <r>
+          <rPr>
+            <vertAlign val="superscript"/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>o</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>C</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C47" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>FXK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+4. 2. 2021
+teplota: 6</t>
+        </r>
+        <r>
+          <rPr>
+            <vertAlign val="superscript"/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>o</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">C
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B48" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>FXK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+18. 12. 2021
+teplota: 4</t>
+        </r>
+        <r>
+          <rPr>
+            <vertAlign val="superscript"/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>o</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>C</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C48" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>FXK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+10. 2. 2022
+teplota: 8</t>
+        </r>
+        <r>
+          <rPr>
+            <vertAlign val="superscript"/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>o</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">C
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B49" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>FXK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+17. 12. 2022
+teplota: -3</t>
+        </r>
+        <r>
+          <rPr>
+            <vertAlign val="superscript"/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>o</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>C</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C49" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>FXK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+13. 2. 2023
+teplota: 3</t>
+        </r>
+        <r>
+          <rPr>
+            <vertAlign val="superscript"/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>o</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">C
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B50" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>FXK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+13. 12. 2023
+teplota: +5</t>
+        </r>
+        <r>
+          <rPr>
+            <vertAlign val="superscript"/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>o</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>C</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C50" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>FXK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+6. 2. 2024
+teplota: +4</t>
+        </r>
+        <r>
+          <rPr>
+            <vertAlign val="superscript"/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>o</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">C
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B51" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>FXK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+15. 12. 2024
+teplota: +2</t>
+        </r>
+        <r>
+          <rPr>
+            <vertAlign val="superscript"/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>o</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>C</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C51" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3216,9 +3841,6 @@
     <xf numFmtId="49" fontId="1" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3266,6 +3888,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4322,34 +4947,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1811</c:v>
+                  <c:v>2213</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>430</c:v>
+                  <c:v>657</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1234</c:v>
+                  <c:v>2111</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>559</c:v>
+                  <c:v>798</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>158</c:v>
+                  <c:v>382</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4823,9 +5448,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P7" sqref="P7"/>
+      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4857,78 +5482,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="28" t="s">
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="P1" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="Q1" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="35" t="s">
+      <c r="R1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="35" t="s">
+      <c r="S1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="T1" s="36" t="s">
+      <c r="T1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="U1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="V1" s="37" t="s">
+      <c r="V1" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="37" t="s">
+      <c r="W1" s="36" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="39"/>
+      <c r="A2" s="38"/>
       <c r="B2" s="5" t="s">
         <v>45</v>
       </c>
@@ -5001,50 +5626,70 @@
         <v>62</v>
       </c>
       <c r="B3" s="8">
-        <f t="shared" ref="B3:B21" si="0">SUM(D3,F3,H3,J3,L3,N3,P3,R3,T3,V3)</f>
-        <v>0</v>
+        <f t="shared" ref="B3:C39" si="0">SUM(D3,F3,H3,J3,L3,N3,P3,R3,T3,V3)</f>
+        <v>38</v>
       </c>
       <c r="C3" s="3">
-        <f t="shared" ref="C3:C21" si="1">SUM(E3,G3,I3,K3,M3,O3,Q3,S3,U3,W3)</f>
-        <v>14</v>
-      </c>
-      <c r="D3" s="9"/>
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="D3" s="9">
+        <v>16</v>
+      </c>
       <c r="E3" s="10">
+        <v>73</v>
+      </c>
+      <c r="F3" s="9">
+        <v>6</v>
+      </c>
+      <c r="G3" s="10">
         <v>9</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10">
-        <v>0</v>
-      </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="11">
+        <v>0</v>
+      </c>
       <c r="I3" s="10">
-        <v>2</v>
-      </c>
-      <c r="J3" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="J3" s="9">
+        <v>16</v>
+      </c>
       <c r="K3" s="10">
-        <v>1</v>
-      </c>
-      <c r="L3" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0</v>
+      </c>
       <c r="M3" s="10">
-        <v>2</v>
-      </c>
-      <c r="N3" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="N3" s="9">
+        <v>0</v>
+      </c>
       <c r="O3" s="10">
         <v>0</v>
       </c>
-      <c r="P3" s="9"/>
+      <c r="P3" s="11">
+        <v>0</v>
+      </c>
       <c r="Q3" s="10">
         <v>0</v>
       </c>
-      <c r="R3" s="9"/>
+      <c r="R3" s="9">
+        <v>0</v>
+      </c>
       <c r="S3" s="10">
         <v>0</v>
       </c>
-      <c r="T3" s="9"/>
+      <c r="T3" s="9">
+        <v>0</v>
+      </c>
       <c r="U3" s="10">
         <v>0</v>
       </c>
-      <c r="V3" s="9"/>
+      <c r="V3" s="9">
+        <v>0</v>
+      </c>
       <c r="W3" s="10">
         <v>0</v>
       </c>
@@ -5055,52 +5700,72 @@
       </c>
       <c r="B4" s="8">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>92</v>
       </c>
       <c r="D4" s="9">
+        <v>21</v>
+      </c>
+      <c r="E4" s="10">
+        <v>54</v>
+      </c>
+      <c r="F4" s="9">
         <v>8</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9">
-        <v>3</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="9">
-        <v>3</v>
-      </c>
-      <c r="I4" s="10"/>
+      <c r="G4" s="10">
+        <v>14</v>
+      </c>
+      <c r="H4" s="11">
+        <v>5</v>
+      </c>
+      <c r="I4" s="10">
+        <v>11</v>
+      </c>
       <c r="J4" s="9">
-        <v>3</v>
-      </c>
-      <c r="K4" s="10"/>
+        <v>7</v>
+      </c>
+      <c r="K4" s="10">
+        <v>13</v>
+      </c>
       <c r="L4" s="9">
         <v>0</v>
       </c>
-      <c r="M4" s="10"/>
+      <c r="M4" s="10">
+        <v>0</v>
+      </c>
       <c r="N4" s="9">
         <v>0</v>
       </c>
-      <c r="O4" s="10"/>
-      <c r="P4" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="10"/>
+      <c r="O4" s="10">
+        <v>0</v>
+      </c>
+      <c r="P4" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>0</v>
+      </c>
       <c r="R4" s="9">
         <v>0</v>
       </c>
-      <c r="S4" s="10"/>
+      <c r="S4" s="10">
+        <v>0</v>
+      </c>
       <c r="T4" s="9">
         <v>0</v>
       </c>
-      <c r="U4" s="10"/>
+      <c r="U4" s="10">
+        <v>0</v>
+      </c>
       <c r="V4" s="9">
         <v>0</v>
       </c>
-      <c r="W4" s="10"/>
+      <c r="W4" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
@@ -5108,49 +5773,69 @@
       </c>
       <c r="B5" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="D5" s="9"/>
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="D5" s="9">
+        <v>8</v>
+      </c>
       <c r="E5" s="10">
-        <v>10</v>
-      </c>
-      <c r="F5" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
       <c r="G5" s="10">
+        <v>4</v>
+      </c>
+      <c r="H5" s="11">
         <v>1</v>
       </c>
-      <c r="H5" s="9"/>
       <c r="I5" s="10">
-        <v>2</v>
-      </c>
-      <c r="J5" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="J5" s="9">
+        <v>4</v>
+      </c>
       <c r="K5" s="10">
         <v>2</v>
       </c>
-      <c r="L5" s="9"/>
+      <c r="L5" s="9">
+        <v>1</v>
+      </c>
       <c r="M5" s="10">
         <v>0</v>
       </c>
-      <c r="N5" s="9"/>
+      <c r="N5" s="9">
+        <v>0</v>
+      </c>
       <c r="O5" s="10">
         <v>0</v>
       </c>
-      <c r="P5" s="9"/>
+      <c r="P5" s="11">
+        <v>0</v>
+      </c>
       <c r="Q5" s="10">
-        <v>0</v>
-      </c>
-      <c r="R5" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="R5" s="9">
+        <v>0</v>
+      </c>
       <c r="S5" s="10">
         <v>0</v>
       </c>
-      <c r="T5" s="9"/>
+      <c r="T5" s="9">
+        <v>0</v>
+      </c>
       <c r="U5" s="10">
         <v>0</v>
       </c>
-      <c r="V5" s="9"/>
+      <c r="V5" s="9">
+        <v>0</v>
+      </c>
       <c r="W5" s="10">
         <v>0</v>
       </c>
@@ -5161,49 +5846,69 @@
       </c>
       <c r="B6" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="D6" s="9"/>
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="D6" s="9">
+        <v>9</v>
+      </c>
       <c r="E6" s="10">
-        <v>7</v>
-      </c>
-      <c r="F6" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="F6" s="9">
+        <v>4</v>
+      </c>
       <c r="G6" s="10">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="H6" s="11">
+        <v>2</v>
+      </c>
       <c r="I6" s="10">
-        <v>2</v>
-      </c>
-      <c r="J6" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="J6" s="9">
+        <v>15</v>
+      </c>
       <c r="K6" s="10">
-        <v>0</v>
-      </c>
-      <c r="L6" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
       <c r="M6" s="10">
         <v>0</v>
       </c>
-      <c r="N6" s="9"/>
+      <c r="N6" s="9">
+        <v>0</v>
+      </c>
       <c r="O6" s="10">
         <v>0</v>
       </c>
-      <c r="P6" s="9"/>
+      <c r="P6" s="11">
+        <v>0</v>
+      </c>
       <c r="Q6" s="10">
         <v>1</v>
       </c>
-      <c r="R6" s="9"/>
+      <c r="R6" s="9">
+        <v>0</v>
+      </c>
       <c r="S6" s="10">
         <v>0</v>
       </c>
-      <c r="T6" s="9"/>
+      <c r="T6" s="9">
+        <v>0</v>
+      </c>
       <c r="U6" s="10">
         <v>0</v>
       </c>
-      <c r="V6" s="9"/>
+      <c r="V6" s="9">
+        <v>0</v>
+      </c>
       <c r="W6" s="10">
         <v>0</v>
       </c>
@@ -5214,49 +5919,69 @@
       </c>
       <c r="B7" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="D7" s="9">
+        <v>12</v>
+      </c>
+      <c r="E7" s="10">
+        <v>47</v>
+      </c>
+      <c r="F7" s="9">
+        <v>6</v>
+      </c>
+      <c r="G7" s="10">
+        <v>6</v>
+      </c>
+      <c r="H7" s="11">
+        <v>5</v>
+      </c>
+      <c r="I7" s="10">
+        <v>15</v>
+      </c>
+      <c r="J7" s="9">
+        <v>4</v>
+      </c>
+      <c r="K7" s="10">
         <v>10</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10">
-        <v>3</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10">
-        <v>5</v>
-      </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="10">
-        <v>2</v>
-      </c>
-      <c r="L7" s="9"/>
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
       <c r="M7" s="10">
         <v>0</v>
       </c>
-      <c r="N7" s="9"/>
+      <c r="N7" s="9">
+        <v>0</v>
+      </c>
       <c r="O7" s="10">
         <v>0</v>
       </c>
-      <c r="P7" s="9"/>
+      <c r="P7" s="11">
+        <v>0</v>
+      </c>
       <c r="Q7" s="10">
         <v>0</v>
       </c>
-      <c r="R7" s="9"/>
+      <c r="R7" s="9">
+        <v>0</v>
+      </c>
       <c r="S7" s="10">
         <v>0</v>
       </c>
-      <c r="T7" s="9"/>
+      <c r="T7" s="9">
+        <v>0</v>
+      </c>
       <c r="U7" s="10">
         <v>0</v>
       </c>
-      <c r="V7" s="9"/>
+      <c r="V7" s="9">
+        <v>0</v>
+      </c>
       <c r="W7" s="10">
         <v>0</v>
       </c>
@@ -5267,59 +5992,59 @@
       </c>
       <c r="B8" s="8">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <f t="shared" si="0"/>
+        <v>101</v>
       </c>
       <c r="D8" s="9">
+        <v>6</v>
+      </c>
+      <c r="E8" s="10">
+        <v>57</v>
+      </c>
+      <c r="F8" s="9">
         <v>3</v>
       </c>
-      <c r="E8" s="10">
+      <c r="G8" s="10">
+        <v>9</v>
+      </c>
+      <c r="H8" s="11">
+        <v>6</v>
+      </c>
+      <c r="I8" s="10">
         <v>16</v>
       </c>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="10">
-        <v>4</v>
-      </c>
-      <c r="H8" s="9">
+      <c r="J8" s="9">
+        <v>5</v>
+      </c>
+      <c r="K8" s="10">
+        <v>16</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0</v>
+      </c>
+      <c r="M8" s="10">
+        <v>0</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0</v>
+      </c>
+      <c r="O8" s="10">
+        <v>0</v>
+      </c>
+      <c r="P8" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>0</v>
+      </c>
+      <c r="R8" s="9">
+        <v>0</v>
+      </c>
+      <c r="S8" s="10">
         <v>3</v>
-      </c>
-      <c r="I8" s="10">
-        <v>3</v>
-      </c>
-      <c r="J8" s="9">
-        <v>4</v>
-      </c>
-      <c r="K8" s="10">
-        <v>4</v>
-      </c>
-      <c r="L8" s="9">
-        <v>1</v>
-      </c>
-      <c r="M8" s="10">
-        <v>0</v>
-      </c>
-      <c r="N8" s="9">
-        <v>0</v>
-      </c>
-      <c r="O8" s="10">
-        <v>0</v>
-      </c>
-      <c r="P8" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="10">
-        <v>2</v>
-      </c>
-      <c r="R8" s="9">
-        <v>0</v>
-      </c>
-      <c r="S8" s="10">
-        <v>0</v>
       </c>
       <c r="T8" s="9">
         <v>0</v>
@@ -5340,56 +6065,56 @@
       </c>
       <c r="B9" s="8">
         <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="D9" s="9">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>46</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10">
+        <v>6</v>
+      </c>
+      <c r="H9" s="11">
+        <v>3</v>
+      </c>
+      <c r="I9" s="10">
         <v>4</v>
       </c>
-      <c r="C9" s="3">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="D9" s="9">
-        <v>3</v>
-      </c>
-      <c r="E9" s="10">
-        <v>15</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="10">
-        <v>2</v>
-      </c>
-      <c r="H9" s="11">
-        <v>0</v>
-      </c>
-      <c r="I9" s="10">
-        <v>2</v>
-      </c>
       <c r="J9" s="9">
+        <v>8</v>
+      </c>
+      <c r="K9" s="10">
+        <v>11</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="10">
+        <v>0</v>
+      </c>
+      <c r="P9" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>0</v>
+      </c>
+      <c r="R9" s="9">
         <v>1</v>
-      </c>
-      <c r="K9" s="10">
-        <v>1</v>
-      </c>
-      <c r="L9" s="9">
-        <v>0</v>
-      </c>
-      <c r="M9" s="10">
-        <v>0</v>
-      </c>
-      <c r="N9" s="9">
-        <v>0</v>
-      </c>
-      <c r="O9" s="10">
-        <v>0</v>
-      </c>
-      <c r="P9" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="10">
-        <v>0</v>
-      </c>
-      <c r="R9" s="9">
-        <v>0</v>
       </c>
       <c r="S9" s="10">
         <v>0</v>
@@ -5411,61 +6136,42 @@
       <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="8"/>
+      <c r="C10" s="3">
         <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="C10" s="3">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="D10" s="9">
-        <v>19</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D10" s="9"/>
       <c r="E10" s="10">
-        <v>31</v>
-      </c>
-      <c r="F10" s="9">
+        <v>24</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10">
+        <v>2</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="10">
+        <v>6</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="10">
         <v>5</v>
       </c>
-      <c r="G10" s="10">
-        <v>12</v>
-      </c>
-      <c r="H10" s="11">
-        <v>4</v>
-      </c>
-      <c r="I10" s="10">
-        <v>2</v>
-      </c>
-      <c r="J10" s="9">
-        <v>8</v>
-      </c>
-      <c r="K10" s="10">
-        <v>3</v>
-      </c>
-      <c r="L10" s="9">
-        <v>0</v>
-      </c>
+      <c r="L10" s="9"/>
       <c r="M10" s="10">
         <v>0</v>
       </c>
-      <c r="N10" s="9">
-        <v>0</v>
-      </c>
+      <c r="N10" s="9"/>
       <c r="O10" s="10">
         <v>0</v>
       </c>
-      <c r="P10" s="11">
-        <v>1</v>
-      </c>
+      <c r="P10" s="11"/>
       <c r="Q10" s="10">
         <v>1</v>
       </c>
-      <c r="R10" s="9">
-        <v>0</v>
-      </c>
+      <c r="R10" s="9"/>
       <c r="S10" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" s="9">
         <v>0</v>
@@ -5486,56 +6192,56 @@
       </c>
       <c r="B11" s="8">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" si="1"/>
-        <v>63</v>
+        <f t="shared" si="0"/>
+        <v>57</v>
       </c>
       <c r="D11" s="9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E11" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F11" s="9">
         <v>3</v>
       </c>
       <c r="G11" s="10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H11" s="11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I11" s="10">
+        <v>15</v>
+      </c>
+      <c r="J11" s="9">
+        <v>9</v>
+      </c>
+      <c r="K11" s="10">
         <v>5</v>
       </c>
-      <c r="J11" s="9">
-        <v>4</v>
-      </c>
-      <c r="K11" s="10">
-        <v>2</v>
-      </c>
       <c r="L11" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M11" s="10">
         <v>0</v>
       </c>
       <c r="N11" s="9">
+        <v>0</v>
+      </c>
+      <c r="O11" s="10">
+        <v>0</v>
+      </c>
+      <c r="P11" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>0</v>
+      </c>
+      <c r="R11" s="9">
         <v>1</v>
-      </c>
-      <c r="O11" s="10">
-        <v>1</v>
-      </c>
-      <c r="P11" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="10">
-        <v>2</v>
-      </c>
-      <c r="R11" s="9">
-        <v>0</v>
       </c>
       <c r="S11" s="10">
         <v>0</v>
@@ -5557,61 +6263,42 @@
       <c r="A12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="8"/>
+      <c r="C12" s="3">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C12" s="3">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="D12" s="9">
-        <v>5</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D12" s="9"/>
       <c r="E12" s="10">
-        <v>21</v>
-      </c>
-      <c r="F12" s="9">
-        <v>4</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F12" s="9"/>
       <c r="G12" s="10">
+        <v>3</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="10">
+        <v>8</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="10">
+        <v>2</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="10">
+        <v>0</v>
+      </c>
+      <c r="N12" s="9"/>
+      <c r="O12" s="10">
+        <v>0</v>
+      </c>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="10">
+        <v>0</v>
+      </c>
+      <c r="R12" s="9"/>
+      <c r="S12" s="10">
         <v>1</v>
-      </c>
-      <c r="H12" s="11">
-        <v>5</v>
-      </c>
-      <c r="I12" s="10">
-        <v>1</v>
-      </c>
-      <c r="J12" s="9">
-        <v>0</v>
-      </c>
-      <c r="K12" s="10">
-        <v>1</v>
-      </c>
-      <c r="L12" s="9">
-        <v>0</v>
-      </c>
-      <c r="M12" s="10">
-        <v>1</v>
-      </c>
-      <c r="N12" s="9">
-        <v>0</v>
-      </c>
-      <c r="O12" s="10">
-        <v>0</v>
-      </c>
-      <c r="P12" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="10">
-        <v>0</v>
-      </c>
-      <c r="R12" s="9">
-        <v>0</v>
-      </c>
-      <c r="S12" s="10">
-        <v>0</v>
       </c>
       <c r="T12" s="9">
         <v>0</v>
@@ -5632,35 +6319,35 @@
       </c>
       <c r="B13" s="8">
         <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="D13" s="9">
+        <v>17</v>
+      </c>
+      <c r="E13" s="10">
+        <v>35</v>
+      </c>
+      <c r="F13" s="11">
         <v>6</v>
       </c>
-      <c r="C13" s="3">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="D13" s="9">
-        <v>2</v>
-      </c>
-      <c r="E13" s="10">
-        <v>5</v>
-      </c>
-      <c r="F13" s="9">
-        <v>1</v>
-      </c>
       <c r="G13" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H13" s="11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I13" s="10">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J13" s="9">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="K13" s="10">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L13" s="9">
         <v>0</v>
@@ -5669,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="10">
         <v>0</v>
@@ -5705,59 +6392,59 @@
       </c>
       <c r="B14" s="8">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>56</v>
       </c>
       <c r="D14" s="9">
+        <v>8</v>
+      </c>
+      <c r="E14" s="10">
+        <v>25</v>
+      </c>
+      <c r="F14" s="11">
+        <v>3</v>
+      </c>
+      <c r="G14" s="10">
+        <v>7</v>
+      </c>
+      <c r="H14" s="11">
         <v>6</v>
       </c>
-      <c r="E14" s="10">
-        <v>23</v>
-      </c>
-      <c r="F14" s="9">
+      <c r="I14" s="10">
+        <v>18</v>
+      </c>
+      <c r="J14" s="9">
+        <v>9</v>
+      </c>
+      <c r="K14" s="10">
+        <v>3</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="10">
+        <v>1</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+      <c r="O14" s="10">
+        <v>0</v>
+      </c>
+      <c r="P14" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>0</v>
+      </c>
+      <c r="R14" s="9">
+        <v>0</v>
+      </c>
+      <c r="S14" s="10">
         <v>2</v>
-      </c>
-      <c r="G14" s="10">
-        <v>3</v>
-      </c>
-      <c r="H14" s="11">
-        <v>1</v>
-      </c>
-      <c r="I14" s="10">
-        <v>3</v>
-      </c>
-      <c r="J14" s="9">
-        <v>7</v>
-      </c>
-      <c r="K14" s="10">
-        <v>1</v>
-      </c>
-      <c r="L14" s="9">
-        <v>0</v>
-      </c>
-      <c r="M14" s="10">
-        <v>0</v>
-      </c>
-      <c r="N14" s="9">
-        <v>0</v>
-      </c>
-      <c r="O14" s="10">
-        <v>0</v>
-      </c>
-      <c r="P14" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="10">
-        <v>0</v>
-      </c>
-      <c r="R14" s="9">
-        <v>0</v>
-      </c>
-      <c r="S14" s="10">
-        <v>0</v>
       </c>
       <c r="T14" s="9">
         <v>0</v>
@@ -5781,32 +6468,32 @@
         <v>38</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" si="1"/>
-        <v>106</v>
+        <f t="shared" si="0"/>
+        <v>72</v>
       </c>
       <c r="D15" s="9">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E15" s="10">
-        <v>73</v>
-      </c>
-      <c r="F15" s="9">
+        <v>38</v>
+      </c>
+      <c r="F15" s="11">
+        <v>4</v>
+      </c>
+      <c r="G15" s="10">
         <v>6</v>
       </c>
-      <c r="G15" s="10">
-        <v>9</v>
-      </c>
       <c r="H15" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I15" s="10">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J15" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K15" s="10">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="L15" s="9">
         <v>0</v>
@@ -5827,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="R15" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S15" s="10">
         <v>0</v>
@@ -5851,35 +6538,35 @@
       </c>
       <c r="B16" s="8">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" si="1"/>
-        <v>92</v>
+        <f t="shared" si="0"/>
+        <v>94</v>
       </c>
       <c r="D16" s="9">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E16" s="10">
-        <v>54</v>
-      </c>
-      <c r="F16" s="9">
+        <v>49</v>
+      </c>
+      <c r="F16" s="11">
+        <v>3</v>
+      </c>
+      <c r="G16" s="10">
         <v>8</v>
       </c>
-      <c r="G16" s="10">
-        <v>14</v>
-      </c>
       <c r="H16" s="11">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I16" s="10">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="J16" s="9">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="K16" s="10">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L16" s="9">
         <v>0</v>
@@ -5900,10 +6587,10 @@
         <v>0</v>
       </c>
       <c r="R16" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T16" s="9">
         <v>0</v>
@@ -5924,59 +6611,59 @@
       </c>
       <c r="B17" s="8">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" si="1"/>
-        <v>53</v>
+        <f t="shared" si="0"/>
+        <v>114</v>
       </c>
       <c r="D17" s="9">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E17" s="10">
-        <v>33</v>
-      </c>
-      <c r="F17" s="9">
+        <v>65</v>
+      </c>
+      <c r="F17" s="11">
+        <v>4</v>
+      </c>
+      <c r="G17" s="10">
+        <v>3</v>
+      </c>
+      <c r="H17" s="11">
+        <v>18</v>
+      </c>
+      <c r="I17" s="10">
+        <v>32</v>
+      </c>
+      <c r="J17" s="9">
+        <v>17</v>
+      </c>
+      <c r="K17" s="10">
+        <v>13</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0</v>
+      </c>
+      <c r="M17" s="10">
+        <v>0</v>
+      </c>
+      <c r="N17" s="9">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10">
+        <v>0</v>
+      </c>
+      <c r="P17" s="11">
         <v>1</v>
       </c>
-      <c r="G17" s="10">
-        <v>4</v>
-      </c>
-      <c r="H17" s="11">
+      <c r="Q17" s="10">
+        <v>0</v>
+      </c>
+      <c r="R17" s="9">
         <v>1</v>
       </c>
-      <c r="I17" s="10">
-        <v>12</v>
-      </c>
-      <c r="J17" s="9">
-        <v>4</v>
-      </c>
-      <c r="K17" s="10">
-        <v>2</v>
-      </c>
-      <c r="L17" s="9">
+      <c r="S17" s="10">
         <v>1</v>
-      </c>
-      <c r="M17" s="10">
-        <v>0</v>
-      </c>
-      <c r="N17" s="9">
-        <v>0</v>
-      </c>
-      <c r="O17" s="10">
-        <v>0</v>
-      </c>
-      <c r="P17" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="10">
-        <v>2</v>
-      </c>
-      <c r="R17" s="9">
-        <v>0</v>
-      </c>
-      <c r="S17" s="10">
-        <v>0</v>
       </c>
       <c r="T17" s="9">
         <v>0</v>
@@ -5997,59 +6684,59 @@
       </c>
       <c r="B18" s="8">
         <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="D18" s="9">
         <v>30</v>
       </c>
-      <c r="C18" s="3">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="D18" s="9">
-        <v>9</v>
-      </c>
       <c r="E18" s="10">
-        <v>31</v>
-      </c>
-      <c r="F18" s="9">
-        <v>4</v>
+        <v>44</v>
+      </c>
+      <c r="F18" s="11">
+        <v>2</v>
       </c>
       <c r="G18" s="10">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H18" s="11">
+        <v>17</v>
+      </c>
+      <c r="I18" s="10">
+        <v>22</v>
+      </c>
+      <c r="J18" s="9">
+        <v>7</v>
+      </c>
+      <c r="K18" s="10">
+        <v>7</v>
+      </c>
+      <c r="L18" s="9">
+        <v>1</v>
+      </c>
+      <c r="M18" s="10">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0</v>
+      </c>
+      <c r="O18" s="10">
+        <v>0</v>
+      </c>
+      <c r="P18" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="10">
         <v>2</v>
       </c>
-      <c r="I18" s="10">
-        <v>12</v>
-      </c>
-      <c r="J18" s="9">
-        <v>15</v>
-      </c>
-      <c r="K18" s="10">
-        <v>14</v>
-      </c>
-      <c r="L18" s="9">
-        <v>0</v>
-      </c>
-      <c r="M18" s="10">
-        <v>0</v>
-      </c>
-      <c r="N18" s="9">
-        <v>0</v>
-      </c>
-      <c r="O18" s="10">
-        <v>0</v>
-      </c>
-      <c r="P18" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="10">
+      <c r="R18" s="9">
         <v>1</v>
       </c>
-      <c r="R18" s="9">
-        <v>0</v>
-      </c>
       <c r="S18" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="9">
         <v>0</v>
@@ -6070,35 +6757,35 @@
       </c>
       <c r="B19" s="8">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" si="1"/>
-        <v>78</v>
+        <f t="shared" si="0"/>
+        <v>90</v>
       </c>
       <c r="D19" s="9">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E19" s="10">
-        <v>47</v>
-      </c>
-      <c r="F19" s="9">
-        <v>6</v>
+        <v>42</v>
+      </c>
+      <c r="F19" s="11">
+        <v>3</v>
       </c>
       <c r="G19" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H19" s="11">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I19" s="10">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="J19" s="9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K19" s="10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L19" s="9">
         <v>0</v>
@@ -6113,16 +6800,16 @@
         <v>0</v>
       </c>
       <c r="P19" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q19" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R19" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S19" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T19" s="9">
         <v>0</v>
@@ -6141,67 +6828,67 @@
       <c r="A20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="12">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C20" s="3">
-        <f t="shared" si="1"/>
-        <v>101</v>
-      </c>
-      <c r="D20" s="9">
+        <v>55</v>
+      </c>
+      <c r="C20" s="39">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="D20" s="13">
+        <v>9</v>
+      </c>
+      <c r="E20" s="10">
+        <v>40</v>
+      </c>
+      <c r="F20" s="9">
+        <v>11</v>
+      </c>
+      <c r="G20" s="14">
+        <v>15</v>
+      </c>
+      <c r="H20" s="15">
+        <v>13</v>
+      </c>
+      <c r="I20" s="10">
+        <v>33</v>
+      </c>
+      <c r="J20" s="9">
+        <v>15</v>
+      </c>
+      <c r="K20" s="14">
+        <v>9</v>
+      </c>
+      <c r="L20" s="15">
+        <v>0</v>
+      </c>
+      <c r="M20" s="10">
+        <v>0</v>
+      </c>
+      <c r="N20" s="9">
+        <v>0</v>
+      </c>
+      <c r="O20" s="14">
+        <v>0</v>
+      </c>
+      <c r="P20" s="15">
         <v>6</v>
       </c>
-      <c r="E20" s="10">
-        <v>57</v>
-      </c>
-      <c r="F20" s="9">
-        <v>3</v>
-      </c>
-      <c r="G20" s="10">
-        <v>9</v>
-      </c>
-      <c r="H20" s="11">
+      <c r="Q20" s="10">
         <v>6</v>
       </c>
-      <c r="I20" s="10">
-        <v>16</v>
-      </c>
-      <c r="J20" s="9">
-        <v>5</v>
-      </c>
-      <c r="K20" s="10">
-        <v>16</v>
-      </c>
-      <c r="L20" s="9">
-        <v>0</v>
-      </c>
-      <c r="M20" s="10">
-        <v>0</v>
-      </c>
-      <c r="N20" s="9">
-        <v>0</v>
-      </c>
-      <c r="O20" s="10">
-        <v>0</v>
-      </c>
-      <c r="P20" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="10">
-        <v>0</v>
-      </c>
       <c r="R20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T20" s="9">
         <v>0</v>
       </c>
       <c r="U20" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" s="9">
         <v>0</v>
@@ -6214,61 +6901,61 @@
       <c r="A21" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="12">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="C21" s="3">
-        <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="D21" s="9">
-        <v>19</v>
+        <v>72</v>
+      </c>
+      <c r="C21" s="39">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="D21" s="13">
+        <v>25</v>
       </c>
       <c r="E21" s="10">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="F21" s="9">
+        <v>12</v>
+      </c>
+      <c r="G21" s="14">
+        <v>22</v>
+      </c>
+      <c r="H21" s="15">
+        <v>15</v>
+      </c>
+      <c r="I21" s="10">
+        <v>30</v>
+      </c>
+      <c r="J21" s="9">
+        <v>16</v>
+      </c>
+      <c r="K21" s="14">
+        <v>27</v>
+      </c>
+      <c r="L21" s="15">
+        <v>0</v>
+      </c>
+      <c r="M21" s="10">
+        <v>0</v>
+      </c>
+      <c r="N21" s="9">
+        <v>0</v>
+      </c>
+      <c r="O21" s="14">
+        <v>0</v>
+      </c>
+      <c r="P21" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="10">
+        <v>5</v>
+      </c>
+      <c r="R21" s="9">
+        <v>0</v>
+      </c>
+      <c r="S21" s="10">
         <v>1</v>
-      </c>
-      <c r="G21" s="10">
-        <v>6</v>
-      </c>
-      <c r="H21" s="11">
-        <v>3</v>
-      </c>
-      <c r="I21" s="10">
-        <v>4</v>
-      </c>
-      <c r="J21" s="9">
-        <v>8</v>
-      </c>
-      <c r="K21" s="10">
-        <v>11</v>
-      </c>
-      <c r="L21" s="9">
-        <v>0</v>
-      </c>
-      <c r="M21" s="10">
-        <v>0</v>
-      </c>
-      <c r="N21" s="9">
-        <v>0</v>
-      </c>
-      <c r="O21" s="10">
-        <v>0</v>
-      </c>
-      <c r="P21" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="10">
-        <v>0</v>
-      </c>
-      <c r="R21" s="9">
-        <v>1</v>
-      </c>
-      <c r="S21" s="10">
-        <v>0</v>
       </c>
       <c r="T21" s="9">
         <v>0</v>
@@ -6287,42 +6974,61 @@
       <c r="A22" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="3">
-        <f t="shared" ref="C22:C51" si="2">SUM(E22,G22,I22,K22,M22,O22,Q22,S22,U22,W22)</f>
-        <v>39</v>
-      </c>
-      <c r="D22" s="9"/>
+      <c r="B22" s="12">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="C22" s="39">
+        <f t="shared" si="0"/>
+        <v>183</v>
+      </c>
+      <c r="D22" s="13">
+        <v>22</v>
+      </c>
       <c r="E22" s="10">
-        <v>24</v>
-      </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="10">
+        <v>79</v>
+      </c>
+      <c r="F22" s="9">
+        <v>15</v>
+      </c>
+      <c r="G22" s="14">
+        <v>25</v>
+      </c>
+      <c r="H22" s="15">
+        <v>18</v>
+      </c>
+      <c r="I22" s="10">
+        <v>49</v>
+      </c>
+      <c r="J22" s="9">
+        <v>18</v>
+      </c>
+      <c r="K22" s="14">
+        <v>25</v>
+      </c>
+      <c r="L22" s="15">
+        <v>0</v>
+      </c>
+      <c r="M22" s="10">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+      <c r="O22" s="14">
+        <v>0</v>
+      </c>
+      <c r="P22" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>3</v>
+      </c>
+      <c r="R22" s="9">
+        <v>1</v>
+      </c>
+      <c r="S22" s="10">
         <v>2</v>
-      </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="10">
-        <v>6</v>
-      </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="10">
-        <v>5</v>
-      </c>
-      <c r="L22" s="9"/>
-      <c r="M22" s="10">
-        <v>0</v>
-      </c>
-      <c r="N22" s="9"/>
-      <c r="O22" s="10">
-        <v>0</v>
-      </c>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="10">
-        <v>1</v>
-      </c>
-      <c r="R22" s="9"/>
-      <c r="S22" s="10">
-        <v>1</v>
       </c>
       <c r="T22" s="9">
         <v>0</v>
@@ -6341,39 +7047,39 @@
       <c r="A23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="8">
-        <f>SUM(D23,F23,H23,J23,L23,N23,P23,R23,T23,V23)</f>
-        <v>29</v>
-      </c>
-      <c r="C23" s="3">
-        <f t="shared" si="2"/>
-        <v>57</v>
-      </c>
-      <c r="D23" s="9">
-        <v>9</v>
+      <c r="B23" s="12">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C23" s="39">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="D23" s="13">
+        <v>12</v>
       </c>
       <c r="E23" s="10">
+        <v>54</v>
+      </c>
+      <c r="F23" s="9">
+        <v>6</v>
+      </c>
+      <c r="G23" s="14">
+        <v>14</v>
+      </c>
+      <c r="H23" s="15">
+        <v>14</v>
+      </c>
+      <c r="I23" s="10">
         <v>30</v>
-      </c>
-      <c r="F23" s="9">
-        <v>3</v>
-      </c>
-      <c r="G23" s="10">
-        <v>7</v>
-      </c>
-      <c r="H23" s="11">
-        <v>7</v>
-      </c>
-      <c r="I23" s="10">
-        <v>15</v>
       </c>
       <c r="J23" s="9">
         <v>9</v>
       </c>
-      <c r="K23" s="10">
-        <v>5</v>
-      </c>
-      <c r="L23" s="9">
+      <c r="K23" s="14">
+        <v>13</v>
+      </c>
+      <c r="L23" s="15">
         <v>0</v>
       </c>
       <c r="M23" s="10">
@@ -6382,20 +7088,20 @@
       <c r="N23" s="9">
         <v>0</v>
       </c>
-      <c r="O23" s="10">
-        <v>0</v>
-      </c>
-      <c r="P23" s="11">
-        <v>0</v>
+      <c r="O23" s="14">
+        <v>0</v>
+      </c>
+      <c r="P23" s="15">
+        <v>4</v>
       </c>
       <c r="Q23" s="10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R23" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S23" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T23" s="9">
         <v>0</v>
@@ -6414,42 +7120,61 @@
       <c r="A24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="3">
-        <f t="shared" si="2"/>
-        <v>41</v>
-      </c>
-      <c r="D24" s="9"/>
+      <c r="B24" s="12">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="C24" s="39">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="D24" s="13">
+        <v>15</v>
+      </c>
       <c r="E24" s="10">
+        <v>28</v>
+      </c>
+      <c r="F24" s="9">
+        <v>10</v>
+      </c>
+      <c r="G24" s="14">
+        <v>7</v>
+      </c>
+      <c r="H24" s="15">
         <v>27</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="10">
-        <v>3</v>
-      </c>
-      <c r="H24" s="11"/>
       <c r="I24" s="10">
-        <v>8</v>
-      </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="10">
+        <v>42</v>
+      </c>
+      <c r="J24" s="9">
+        <v>15</v>
+      </c>
+      <c r="K24" s="14">
+        <v>18</v>
+      </c>
+      <c r="L24" s="15">
+        <v>0</v>
+      </c>
+      <c r="M24" s="10">
+        <v>0</v>
+      </c>
+      <c r="N24" s="9">
+        <v>0</v>
+      </c>
+      <c r="O24" s="14">
+        <v>0</v>
+      </c>
+      <c r="P24" s="15">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="10">
+        <v>11</v>
+      </c>
+      <c r="R24" s="9">
+        <v>1</v>
+      </c>
+      <c r="S24" s="10">
         <v>2</v>
-      </c>
-      <c r="L24" s="9"/>
-      <c r="M24" s="10">
-        <v>0</v>
-      </c>
-      <c r="N24" s="9"/>
-      <c r="O24" s="10">
-        <v>0</v>
-      </c>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="10">
-        <v>0</v>
-      </c>
-      <c r="R24" s="9"/>
-      <c r="S24" s="10">
-        <v>1</v>
       </c>
       <c r="T24" s="9">
         <v>0</v>
@@ -6468,58 +7193,58 @@
       <c r="A25" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="8">
-        <f>SUM(D25,F25,H25,J25,L25,N25,P25,R25,T25,V25)</f>
-        <v>44</v>
-      </c>
-      <c r="C25" s="3">
-        <f t="shared" si="2"/>
-        <v>86</v>
-      </c>
-      <c r="D25" s="9">
-        <v>17</v>
+      <c r="B25" s="12">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C25" s="39">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="D25" s="13">
+        <v>6</v>
       </c>
       <c r="E25" s="10">
-        <v>35</v>
-      </c>
-      <c r="F25" s="11">
-        <v>6</v>
-      </c>
-      <c r="G25" s="10">
+        <v>24</v>
+      </c>
+      <c r="F25" s="9">
+        <v>11</v>
+      </c>
+      <c r="G25" s="14">
+        <v>12</v>
+      </c>
+      <c r="H25" s="15">
+        <v>16</v>
+      </c>
+      <c r="I25" s="10">
+        <v>37</v>
+      </c>
+      <c r="J25" s="9">
+        <v>11</v>
+      </c>
+      <c r="K25" s="14">
+        <v>11</v>
+      </c>
+      <c r="L25" s="15">
+        <v>0</v>
+      </c>
+      <c r="M25" s="10">
+        <v>0</v>
+      </c>
+      <c r="N25" s="9">
+        <v>0</v>
+      </c>
+      <c r="O25" s="14">
+        <v>0</v>
+      </c>
+      <c r="P25" s="15">
+        <v>9</v>
+      </c>
+      <c r="Q25" s="10">
         <v>7</v>
       </c>
-      <c r="H25" s="11">
-        <v>8</v>
-      </c>
-      <c r="I25" s="10">
-        <v>24</v>
-      </c>
-      <c r="J25" s="9">
-        <v>13</v>
-      </c>
-      <c r="K25" s="10">
-        <v>20</v>
-      </c>
-      <c r="L25" s="9">
-        <v>0</v>
-      </c>
-      <c r="M25" s="10">
-        <v>0</v>
-      </c>
-      <c r="N25" s="9">
-        <v>0</v>
-      </c>
-      <c r="O25" s="10">
-        <v>0</v>
-      </c>
-      <c r="P25" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="10">
-        <v>0</v>
-      </c>
       <c r="R25" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" s="10">
         <v>0</v>
@@ -6541,134 +7266,134 @@
       <c r="A26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="8">
-        <f>SUM(D26,F26,H26,J26,L26,N26,P26,R26,T26,V26)</f>
-        <v>26</v>
-      </c>
-      <c r="C26" s="3">
-        <f t="shared" si="2"/>
-        <v>56</v>
-      </c>
-      <c r="D26" s="9">
-        <v>8</v>
+      <c r="B26" s="12">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C26" s="39">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="D26" s="13">
+        <v>3</v>
       </c>
       <c r="E26" s="10">
         <v>25</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="9">
+        <v>7</v>
+      </c>
+      <c r="G26" s="14">
+        <v>6</v>
+      </c>
+      <c r="H26" s="15">
+        <v>10</v>
+      </c>
+      <c r="I26" s="10">
+        <v>36</v>
+      </c>
+      <c r="J26" s="9">
+        <v>6</v>
+      </c>
+      <c r="K26" s="14">
+        <v>4</v>
+      </c>
+      <c r="L26" s="15">
+        <v>0</v>
+      </c>
+      <c r="M26" s="10">
+        <v>0</v>
+      </c>
+      <c r="N26" s="9">
+        <v>0</v>
+      </c>
+      <c r="O26" s="14">
+        <v>0</v>
+      </c>
+      <c r="P26" s="15">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="10">
+        <v>4</v>
+      </c>
+      <c r="R26" s="9">
+        <v>1</v>
+      </c>
+      <c r="S26" s="10">
         <v>3</v>
       </c>
-      <c r="G26" s="10">
-        <v>7</v>
-      </c>
-      <c r="H26" s="11">
-        <v>6</v>
-      </c>
-      <c r="I26" s="10">
-        <v>18</v>
-      </c>
-      <c r="J26" s="9">
-        <v>9</v>
-      </c>
-      <c r="K26" s="10">
-        <v>3</v>
-      </c>
-      <c r="L26" s="9">
-        <v>0</v>
-      </c>
-      <c r="M26" s="10">
+      <c r="T26" s="9">
+        <v>0</v>
+      </c>
+      <c r="U26" s="10">
+        <v>0</v>
+      </c>
+      <c r="V26" s="9">
         <v>1</v>
       </c>
-      <c r="N26" s="9">
-        <v>0</v>
-      </c>
-      <c r="O26" s="10">
-        <v>0</v>
-      </c>
-      <c r="P26" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="10">
-        <v>0</v>
-      </c>
-      <c r="R26" s="9">
-        <v>0</v>
-      </c>
-      <c r="S26" s="10">
-        <v>2</v>
-      </c>
-      <c r="T26" s="9">
-        <v>0</v>
-      </c>
-      <c r="U26" s="10">
-        <v>0</v>
-      </c>
-      <c r="V26" s="9">
-        <v>0</v>
-      </c>
       <c r="W26" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="8">
-        <f>SUM(D27,F27,H27,J27,L27,N27,P27,R27,T27,V27)</f>
+      <c r="B27" s="12">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C27" s="39">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="D27" s="13">
+        <v>10</v>
+      </c>
+      <c r="E27" s="10">
+        <v>18</v>
+      </c>
+      <c r="F27" s="9">
+        <v>7</v>
+      </c>
+      <c r="G27" s="14">
+        <v>5</v>
+      </c>
+      <c r="H27" s="15">
+        <v>17</v>
+      </c>
+      <c r="I27" s="10">
         <v>38</v>
       </c>
-      <c r="C27" s="3">
-        <f t="shared" si="2"/>
-        <v>72</v>
-      </c>
-      <c r="D27" s="9">
-        <v>13</v>
-      </c>
-      <c r="E27" s="10">
-        <v>38</v>
-      </c>
-      <c r="F27" s="11">
-        <v>4</v>
-      </c>
-      <c r="G27" s="10">
+      <c r="J27" s="9">
+        <v>5</v>
+      </c>
+      <c r="K27" s="14">
+        <v>9</v>
+      </c>
+      <c r="L27" s="15">
+        <v>0</v>
+      </c>
+      <c r="M27" s="10">
+        <v>0</v>
+      </c>
+      <c r="N27" s="9">
+        <v>0</v>
+      </c>
+      <c r="O27" s="14">
+        <v>0</v>
+      </c>
+      <c r="P27" s="15">
         <v>6</v>
       </c>
-      <c r="H27" s="11">
+      <c r="Q27" s="10">
         <v>7</v>
       </c>
-      <c r="I27" s="10">
-        <v>21</v>
-      </c>
-      <c r="J27" s="9">
-        <v>12</v>
-      </c>
-      <c r="K27" s="10">
-        <v>7</v>
-      </c>
-      <c r="L27" s="9">
-        <v>0</v>
-      </c>
-      <c r="M27" s="10">
-        <v>0</v>
-      </c>
-      <c r="N27" s="9">
-        <v>0</v>
-      </c>
-      <c r="O27" s="10">
-        <v>0</v>
-      </c>
-      <c r="P27" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="10">
-        <v>0</v>
-      </c>
       <c r="R27" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S27" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" s="9">
         <v>0</v>
@@ -6687,39 +7412,39 @@
       <c r="A28" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="8">
-        <f>SUM(D28,F28,H28,J28,L28,N28,P28,R28,T28,V28)</f>
-        <v>45</v>
-      </c>
-      <c r="C28" s="3">
-        <f t="shared" si="2"/>
-        <v>94</v>
-      </c>
-      <c r="D28" s="9">
-        <v>13</v>
+      <c r="B28" s="12">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C28" s="39">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="D28" s="13">
+        <v>10</v>
       </c>
       <c r="E28" s="10">
-        <v>49</v>
-      </c>
-      <c r="F28" s="11">
+        <v>28</v>
+      </c>
+      <c r="F28" s="9">
         <v>3</v>
       </c>
-      <c r="G28" s="10">
-        <v>8</v>
-      </c>
-      <c r="H28" s="11">
-        <v>11</v>
+      <c r="G28" s="14">
+        <v>7</v>
+      </c>
+      <c r="H28" s="15">
+        <v>15</v>
       </c>
       <c r="I28" s="10">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="J28" s="9">
-        <v>17</v>
-      </c>
-      <c r="K28" s="10">
-        <v>9</v>
-      </c>
-      <c r="L28" s="9">
+        <v>6</v>
+      </c>
+      <c r="K28" s="14">
+        <v>7</v>
+      </c>
+      <c r="L28" s="15">
         <v>0</v>
       </c>
       <c r="M28" s="10">
@@ -6728,20 +7453,20 @@
       <c r="N28" s="9">
         <v>0</v>
       </c>
-      <c r="O28" s="10">
-        <v>0</v>
-      </c>
-      <c r="P28" s="11">
-        <v>0</v>
+      <c r="O28" s="14">
+        <v>0</v>
+      </c>
+      <c r="P28" s="15">
+        <v>6</v>
       </c>
       <c r="Q28" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R28" s="9">
         <v>1</v>
       </c>
       <c r="S28" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T28" s="9">
         <v>0</v>
@@ -6760,39 +7485,39 @@
       <c r="A29" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="8">
-        <f>SUM(D29,F29,H29,J29,L29,N29,P29,R29,T29,V29)</f>
-        <v>58</v>
-      </c>
-      <c r="C29" s="3">
-        <f t="shared" si="2"/>
-        <v>114</v>
-      </c>
-      <c r="D29" s="9">
-        <v>17</v>
+      <c r="B29" s="12">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="C29" s="39">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="D29" s="13">
+        <v>6</v>
       </c>
       <c r="E29" s="10">
-        <v>65</v>
-      </c>
-      <c r="F29" s="11">
-        <v>4</v>
-      </c>
-      <c r="G29" s="10">
-        <v>3</v>
-      </c>
-      <c r="H29" s="11">
-        <v>18</v>
+        <v>38</v>
+      </c>
+      <c r="F29" s="9">
+        <v>7</v>
+      </c>
+      <c r="G29" s="14">
+        <v>7</v>
+      </c>
+      <c r="H29" s="15">
+        <v>21</v>
       </c>
       <c r="I29" s="10">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="J29" s="9">
-        <v>17</v>
-      </c>
-      <c r="K29" s="10">
-        <v>13</v>
-      </c>
-      <c r="L29" s="9">
+        <v>10</v>
+      </c>
+      <c r="K29" s="14">
+        <v>14</v>
+      </c>
+      <c r="L29" s="15">
         <v>0</v>
       </c>
       <c r="M29" s="10">
@@ -6801,20 +7526,20 @@
       <c r="N29" s="9">
         <v>0</v>
       </c>
-      <c r="O29" s="10">
-        <v>0</v>
-      </c>
-      <c r="P29" s="11">
-        <v>1</v>
+      <c r="O29" s="14">
+        <v>0</v>
+      </c>
+      <c r="P29" s="15">
+        <v>5</v>
       </c>
       <c r="Q29" s="10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R29" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T29" s="9">
         <v>0</v>
@@ -6833,48 +7558,71 @@
       <c r="A30" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="23">
-        <f t="shared" si="2"/>
-        <v>79</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="25">
-        <v>44</v>
-      </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="25">
-        <v>3</v>
-      </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="25">
-        <v>22</v>
-      </c>
-      <c r="J30" s="9"/>
-      <c r="K30" s="25">
+      <c r="B30" s="12">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="C30" s="39">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="D30" s="13">
+        <v>10</v>
+      </c>
+      <c r="E30" s="10">
+        <v>17</v>
+      </c>
+      <c r="F30" s="9">
+        <v>13</v>
+      </c>
+      <c r="G30" s="14">
+        <v>8</v>
+      </c>
+      <c r="H30" s="15">
+        <v>23</v>
+      </c>
+      <c r="I30" s="10">
+        <v>48</v>
+      </c>
+      <c r="J30" s="9">
         <v>7</v>
       </c>
-      <c r="L30" s="9"/>
+      <c r="K30" s="14">
+        <v>8</v>
+      </c>
+      <c r="L30" s="15">
+        <v>0</v>
+      </c>
       <c r="M30" s="10">
         <v>0</v>
       </c>
-      <c r="N30" s="9"/>
-      <c r="O30" s="10">
-        <v>0</v>
-      </c>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="25">
+      <c r="N30" s="9">
+        <v>0</v>
+      </c>
+      <c r="O30" s="14">
+        <v>0</v>
+      </c>
+      <c r="P30" s="15">
+        <v>8</v>
+      </c>
+      <c r="Q30" s="10">
+        <v>9</v>
+      </c>
+      <c r="R30" s="9">
+        <v>0</v>
+      </c>
+      <c r="S30" s="10">
         <v>2</v>
       </c>
-      <c r="R30" s="9"/>
-      <c r="S30" s="10">
-        <v>1</v>
-      </c>
-      <c r="T30" s="9"/>
+      <c r="T30" s="9">
+        <v>0</v>
+      </c>
       <c r="U30" s="10">
         <v>0</v>
       </c>
-      <c r="V30" s="9"/>
+      <c r="V30" s="9">
+        <v>0</v>
+      </c>
       <c r="W30" s="10">
         <v>0</v>
       </c>
@@ -6883,98 +7631,144 @@
       <c r="A31" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="23">
-        <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="25">
-        <v>42</v>
-      </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="25">
+      <c r="B31" s="12">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="C31" s="39">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
+      <c r="D31" s="13">
+        <v>18</v>
+      </c>
+      <c r="E31" s="10">
+        <v>51</v>
+      </c>
+      <c r="F31" s="9">
+        <v>6</v>
+      </c>
+      <c r="G31" s="14">
+        <v>18</v>
+      </c>
+      <c r="H31" s="15">
+        <v>27</v>
+      </c>
+      <c r="I31" s="10">
+        <v>60</v>
+      </c>
+      <c r="J31" s="9">
+        <v>9</v>
+      </c>
+      <c r="K31" s="14">
+        <v>15</v>
+      </c>
+      <c r="L31" s="15">
+        <v>0</v>
+      </c>
+      <c r="M31" s="10">
+        <v>0</v>
+      </c>
+      <c r="N31" s="9">
+        <v>0</v>
+      </c>
+      <c r="O31" s="14">
+        <v>0</v>
+      </c>
+      <c r="P31" s="15">
         <v>7</v>
       </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="25">
-        <v>28</v>
-      </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="25">
-        <v>9</v>
-      </c>
-      <c r="L31" s="9"/>
-      <c r="M31" s="10">
-        <v>0</v>
-      </c>
-      <c r="N31" s="9"/>
-      <c r="O31" s="10">
-        <v>0</v>
-      </c>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="25">
-        <v>2</v>
-      </c>
-      <c r="R31" s="9"/>
+      <c r="Q31" s="10">
+        <v>12</v>
+      </c>
+      <c r="R31" s="9">
+        <v>0</v>
+      </c>
       <c r="S31" s="10">
-        <v>2</v>
-      </c>
-      <c r="T31" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="T31" s="9">
+        <v>0</v>
+      </c>
       <c r="U31" s="10">
         <v>0</v>
       </c>
-      <c r="V31" s="9"/>
+      <c r="V31" s="9">
+        <v>0</v>
+      </c>
       <c r="W31" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="24">
-        <f t="shared" si="2"/>
-        <v>105</v>
-      </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="25">
-        <v>40</v>
-      </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="26">
-        <v>15</v>
-      </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="25">
-        <v>33</v>
-      </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="26">
-        <v>9</v>
-      </c>
-      <c r="L32" s="15"/>
+      <c r="B32" s="12">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="C32" s="39">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="D32" s="13">
+        <v>8</v>
+      </c>
+      <c r="E32" s="10">
+        <v>32</v>
+      </c>
+      <c r="F32" s="9">
+        <v>2</v>
+      </c>
+      <c r="G32" s="14">
+        <v>3</v>
+      </c>
+      <c r="H32" s="15">
+        <v>22</v>
+      </c>
+      <c r="I32" s="10">
+        <v>55</v>
+      </c>
+      <c r="J32" s="9">
+        <v>6</v>
+      </c>
+      <c r="K32" s="14">
+        <v>3</v>
+      </c>
+      <c r="L32" s="15">
+        <v>0</v>
+      </c>
       <c r="M32" s="10">
         <v>0</v>
       </c>
-      <c r="N32" s="9"/>
+      <c r="N32" s="9">
+        <v>0</v>
+      </c>
       <c r="O32" s="14">
         <v>0</v>
       </c>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="25">
+      <c r="P32" s="15">
+        <v>13</v>
+      </c>
+      <c r="Q32" s="10">
         <v>6</v>
       </c>
-      <c r="R32" s="9"/>
+      <c r="R32" s="9">
+        <v>0</v>
+      </c>
       <c r="S32" s="10">
-        <v>1</v>
-      </c>
-      <c r="T32" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="T32" s="9">
+        <v>0</v>
+      </c>
       <c r="U32" s="10">
-        <v>1</v>
-      </c>
-      <c r="V32" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="V32" s="9">
+        <v>0</v>
+      </c>
       <c r="W32" s="10">
         <v>0</v>
       </c>
@@ -6983,48 +7777,71 @@
       <c r="A33" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="24">
-        <f t="shared" si="2"/>
-        <v>145</v>
-      </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="25">
-        <v>60</v>
-      </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="26">
-        <v>22</v>
-      </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="25">
-        <v>30</v>
-      </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="26">
-        <v>27</v>
-      </c>
-      <c r="L33" s="15"/>
+      <c r="B33" s="12">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C33" s="39">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="D33" s="13">
+        <v>10</v>
+      </c>
+      <c r="E33" s="10">
+        <v>21</v>
+      </c>
+      <c r="F33" s="9">
+        <v>4</v>
+      </c>
+      <c r="G33" s="14">
+        <v>5</v>
+      </c>
+      <c r="H33" s="15">
+        <v>17</v>
+      </c>
+      <c r="I33" s="10">
+        <v>35</v>
+      </c>
+      <c r="J33" s="9">
+        <v>2</v>
+      </c>
+      <c r="K33" s="14">
+        <v>6</v>
+      </c>
+      <c r="L33" s="15">
+        <v>0</v>
+      </c>
       <c r="M33" s="10">
         <v>0</v>
       </c>
-      <c r="N33" s="9"/>
+      <c r="N33" s="9">
+        <v>0</v>
+      </c>
       <c r="O33" s="14">
         <v>0</v>
       </c>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="25">
-        <v>5</v>
-      </c>
-      <c r="R33" s="9"/>
+      <c r="P33" s="15">
+        <v>12</v>
+      </c>
+      <c r="Q33" s="10">
+        <v>8</v>
+      </c>
+      <c r="R33" s="9">
+        <v>2</v>
+      </c>
       <c r="S33" s="10">
-        <v>1</v>
-      </c>
-      <c r="T33" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="T33" s="9">
+        <v>0</v>
+      </c>
       <c r="U33" s="10">
         <v>0</v>
       </c>
-      <c r="V33" s="9"/>
+      <c r="V33" s="9">
+        <v>0</v>
+      </c>
       <c r="W33" s="10">
         <v>0</v>
       </c>
@@ -7033,48 +7850,71 @@
       <c r="A34" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="24">
-        <f t="shared" si="2"/>
-        <v>183</v>
-      </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="25">
-        <v>79</v>
-      </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="26">
+      <c r="B34" s="12">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C34" s="39">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="D34" s="13">
+        <v>9</v>
+      </c>
+      <c r="E34" s="10">
         <v>25</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="25">
-        <v>49</v>
-      </c>
-      <c r="J34" s="9"/>
-      <c r="K34" s="26">
-        <v>25</v>
-      </c>
-      <c r="L34" s="15"/>
+      <c r="F34" s="9">
+        <v>8</v>
+      </c>
+      <c r="G34" s="14">
+        <v>6</v>
+      </c>
+      <c r="H34" s="15">
+        <v>11</v>
+      </c>
+      <c r="I34" s="10">
+        <v>32</v>
+      </c>
+      <c r="J34" s="9">
+        <v>5</v>
+      </c>
+      <c r="K34" s="14">
+        <v>9</v>
+      </c>
+      <c r="L34" s="15">
+        <v>0</v>
+      </c>
       <c r="M34" s="10">
         <v>0</v>
       </c>
-      <c r="N34" s="9"/>
+      <c r="N34" s="9">
+        <v>0</v>
+      </c>
       <c r="O34" s="14">
         <v>0</v>
       </c>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="25">
-        <v>3</v>
-      </c>
-      <c r="R34" s="9"/>
+      <c r="P34" s="15">
+        <v>12</v>
+      </c>
+      <c r="Q34" s="10">
+        <v>12</v>
+      </c>
+      <c r="R34" s="9">
+        <v>1</v>
+      </c>
       <c r="S34" s="10">
-        <v>2</v>
-      </c>
-      <c r="T34" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="9">
+        <v>0</v>
+      </c>
       <c r="U34" s="10">
         <v>0</v>
       </c>
-      <c r="V34" s="9"/>
+      <c r="V34" s="9">
+        <v>0</v>
+      </c>
       <c r="W34" s="10">
         <v>0</v>
       </c>
@@ -7083,98 +7923,144 @@
       <c r="A35" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="24">
-        <f t="shared" si="2"/>
-        <v>121</v>
-      </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="25">
-        <v>54</v>
-      </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="26">
-        <v>14</v>
-      </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="25">
-        <v>30</v>
-      </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="26">
-        <v>13</v>
-      </c>
-      <c r="L35" s="15"/>
+      <c r="B35" s="21">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="C35" s="39">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="D35" s="13">
+        <v>32</v>
+      </c>
+      <c r="E35" s="10">
+        <v>49</v>
+      </c>
+      <c r="F35" s="9">
+        <v>15</v>
+      </c>
+      <c r="G35" s="14">
+        <v>26</v>
+      </c>
+      <c r="H35" s="15">
+        <v>21</v>
+      </c>
+      <c r="I35" s="10">
+        <v>32</v>
+      </c>
+      <c r="J35" s="9">
+        <v>8</v>
+      </c>
+      <c r="K35" s="14">
+        <v>12</v>
+      </c>
+      <c r="L35" s="15">
+        <v>0</v>
+      </c>
       <c r="M35" s="10">
         <v>0</v>
       </c>
-      <c r="N35" s="9"/>
+      <c r="N35" s="9">
+        <v>0</v>
+      </c>
       <c r="O35" s="14">
         <v>0</v>
       </c>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="25">
-        <v>8</v>
-      </c>
-      <c r="R35" s="9"/>
+      <c r="P35" s="15">
+        <v>15</v>
+      </c>
+      <c r="Q35" s="10">
+        <v>15</v>
+      </c>
+      <c r="R35" s="9">
+        <v>0</v>
+      </c>
       <c r="S35" s="10">
         <v>2</v>
       </c>
-      <c r="T35" s="9"/>
+      <c r="T35" s="9">
+        <v>0</v>
+      </c>
       <c r="U35" s="10">
         <v>0</v>
       </c>
-      <c r="V35" s="9"/>
+      <c r="V35" s="9">
+        <v>3</v>
+      </c>
       <c r="W35" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="24">
-        <f t="shared" si="2"/>
-        <v>108</v>
-      </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="25">
-        <v>28</v>
-      </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="26">
+      <c r="B36" s="21">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="C36" s="39">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="D36" s="13">
+        <v>13</v>
+      </c>
+      <c r="E36" s="10">
+        <v>26</v>
+      </c>
+      <c r="F36" s="9">
+        <v>10</v>
+      </c>
+      <c r="G36" s="14">
+        <v>6</v>
+      </c>
+      <c r="H36" s="15">
+        <v>17</v>
+      </c>
+      <c r="I36" s="10">
+        <v>37</v>
+      </c>
+      <c r="J36" s="9">
         <v>7</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="25">
-        <v>42</v>
-      </c>
-      <c r="J36" s="9"/>
-      <c r="K36" s="26">
-        <v>18</v>
-      </c>
-      <c r="L36" s="15"/>
+      <c r="K36" s="14">
+        <v>5</v>
+      </c>
+      <c r="L36" s="15">
+        <v>1</v>
+      </c>
       <c r="M36" s="10">
         <v>0</v>
       </c>
-      <c r="N36" s="9"/>
+      <c r="N36" s="9">
+        <v>0</v>
+      </c>
       <c r="O36" s="14">
         <v>0</v>
       </c>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="25">
-        <v>11</v>
-      </c>
-      <c r="R36" s="9"/>
+      <c r="P36" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q36" s="10">
+        <v>2</v>
+      </c>
+      <c r="R36" s="9">
+        <v>4</v>
+      </c>
       <c r="S36" s="10">
         <v>2</v>
       </c>
-      <c r="T36" s="9"/>
+      <c r="T36" s="9">
+        <v>0</v>
+      </c>
       <c r="U36" s="10">
         <v>0</v>
       </c>
-      <c r="V36" s="9"/>
+      <c r="V36" s="9">
+        <v>0</v>
+      </c>
       <c r="W36" s="10">
         <v>0</v>
       </c>
@@ -7183,98 +8069,144 @@
       <c r="A37" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="24">
-        <f t="shared" si="2"/>
-        <v>91</v>
-      </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="25">
-        <v>24</v>
-      </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="26">
-        <v>12</v>
-      </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="25">
+      <c r="B37" s="21">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="J37" s="9"/>
-      <c r="K37" s="26">
-        <v>11</v>
-      </c>
-      <c r="L37" s="15"/>
+      <c r="C37" s="39">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="D37" s="13">
+        <v>5</v>
+      </c>
+      <c r="E37" s="10">
+        <v>14</v>
+      </c>
+      <c r="F37" s="9">
+        <v>8</v>
+      </c>
+      <c r="G37" s="14">
+        <v>13</v>
+      </c>
+      <c r="H37" s="15">
+        <v>17</v>
+      </c>
+      <c r="I37" s="10">
+        <v>49</v>
+      </c>
+      <c r="J37" s="9">
+        <v>2</v>
+      </c>
+      <c r="K37" s="14">
+        <v>6</v>
+      </c>
+      <c r="L37" s="15">
+        <v>0</v>
+      </c>
       <c r="M37" s="10">
         <v>0</v>
       </c>
-      <c r="N37" s="9"/>
+      <c r="N37" s="9">
+        <v>0</v>
+      </c>
       <c r="O37" s="14">
         <v>0</v>
       </c>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="25">
-        <v>7</v>
-      </c>
-      <c r="R37" s="9"/>
+      <c r="P37" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q37" s="10">
+        <v>5</v>
+      </c>
+      <c r="R37" s="9">
+        <v>0</v>
+      </c>
       <c r="S37" s="10">
         <v>0</v>
       </c>
-      <c r="T37" s="9"/>
+      <c r="T37" s="9">
+        <v>0</v>
+      </c>
       <c r="U37" s="10">
         <v>0</v>
       </c>
-      <c r="V37" s="9"/>
+      <c r="V37" s="9">
+        <v>1</v>
+      </c>
       <c r="W37" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A38" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="24">
-        <f t="shared" si="2"/>
-        <v>79</v>
-      </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="25">
-        <v>25</v>
-      </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="26">
+      <c r="B38" s="21">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C38" s="39">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="D38" s="13">
+        <v>10</v>
+      </c>
+      <c r="E38" s="10">
+        <v>23</v>
+      </c>
+      <c r="F38" s="9">
+        <v>3</v>
+      </c>
+      <c r="G38" s="14">
         <v>6</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="25">
+      <c r="H38" s="15">
+        <v>17</v>
+      </c>
+      <c r="I38" s="10">
         <v>36</v>
       </c>
-      <c r="J38" s="9"/>
-      <c r="K38" s="26">
-        <v>4</v>
-      </c>
-      <c r="L38" s="15"/>
+      <c r="J38" s="9">
+        <v>1</v>
+      </c>
+      <c r="K38" s="14">
+        <v>6</v>
+      </c>
+      <c r="L38" s="15">
+        <v>0</v>
+      </c>
       <c r="M38" s="10">
         <v>0</v>
       </c>
-      <c r="N38" s="9"/>
+      <c r="N38" s="9">
+        <v>0</v>
+      </c>
       <c r="O38" s="14">
         <v>0</v>
       </c>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="25">
-        <v>4</v>
-      </c>
-      <c r="R38" s="9"/>
+      <c r="P38" s="15">
+        <v>2</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>0</v>
+      </c>
+      <c r="R38" s="9">
+        <v>0</v>
+      </c>
       <c r="S38" s="10">
-        <v>3</v>
-      </c>
-      <c r="T38" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="T38" s="9">
+        <v>0</v>
+      </c>
       <c r="U38" s="10">
         <v>0</v>
       </c>
-      <c r="V38" s="9"/>
+      <c r="V38" s="9">
+        <v>0</v>
+      </c>
       <c r="W38" s="10">
         <v>1</v>
       </c>
@@ -7283,48 +8215,71 @@
       <c r="A39" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="24">
-        <f t="shared" si="2"/>
-        <v>78</v>
-      </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="25">
-        <v>18</v>
-      </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="26">
-        <v>5</v>
-      </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="25">
-        <v>38</v>
-      </c>
-      <c r="J39" s="9"/>
-      <c r="K39" s="26">
-        <v>9</v>
-      </c>
-      <c r="L39" s="15"/>
+      <c r="B39" s="21">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="C39" s="39">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="D39" s="13">
+        <v>11</v>
+      </c>
+      <c r="E39" s="10">
+        <v>28</v>
+      </c>
+      <c r="F39" s="9">
+        <v>3</v>
+      </c>
+      <c r="G39" s="14">
+        <v>6</v>
+      </c>
+      <c r="H39" s="15">
+        <v>22</v>
+      </c>
+      <c r="I39" s="10">
+        <v>47</v>
+      </c>
+      <c r="J39" s="9">
+        <v>11</v>
+      </c>
+      <c r="K39" s="14">
+        <v>8</v>
+      </c>
+      <c r="L39" s="15">
+        <v>0</v>
+      </c>
       <c r="M39" s="10">
         <v>0</v>
       </c>
-      <c r="N39" s="9"/>
+      <c r="N39" s="9">
+        <v>0</v>
+      </c>
       <c r="O39" s="14">
         <v>0</v>
       </c>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="25">
-        <v>7</v>
-      </c>
-      <c r="R39" s="9"/>
+      <c r="P39" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q39" s="10">
+        <v>6</v>
+      </c>
+      <c r="R39" s="9">
+        <v>0</v>
+      </c>
       <c r="S39" s="10">
+        <v>0</v>
+      </c>
+      <c r="T39" s="9">
+        <v>0</v>
+      </c>
+      <c r="U39" s="10">
+        <v>0</v>
+      </c>
+      <c r="V39" s="9">
         <v>1</v>
       </c>
-      <c r="T39" s="9"/>
-      <c r="U39" s="10">
-        <v>0</v>
-      </c>
-      <c r="V39" s="9"/>
       <c r="W39" s="10">
         <v>0</v>
       </c>
@@ -7334,24 +8289,24 @@
         <v>37</v>
       </c>
       <c r="B40" s="12"/>
-      <c r="C40" s="24">
-        <f t="shared" si="2"/>
+      <c r="C40" s="23">
+        <f t="shared" ref="C22:C51" si="1">SUM(E40,G40,I40,K40,M40,O40,Q40,S40,U40,W40)</f>
         <v>98</v>
       </c>
       <c r="D40" s="13"/>
-      <c r="E40" s="25">
+      <c r="E40" s="24">
         <v>28</v>
       </c>
       <c r="F40" s="9"/>
-      <c r="G40" s="26">
+      <c r="G40" s="25">
         <v>7</v>
       </c>
       <c r="H40" s="15"/>
-      <c r="I40" s="25">
+      <c r="I40" s="24">
         <v>50</v>
       </c>
       <c r="J40" s="9"/>
-      <c r="K40" s="26">
+      <c r="K40" s="25">
         <v>7</v>
       </c>
       <c r="L40" s="15"/>
@@ -7363,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="15"/>
-      <c r="Q40" s="25">
+      <c r="Q40" s="24">
         <v>5</v>
       </c>
       <c r="R40" s="9"/>
@@ -7384,24 +8339,24 @@
         <v>38</v>
       </c>
       <c r="B41" s="12"/>
-      <c r="C41" s="24">
-        <f t="shared" si="2"/>
+      <c r="C41" s="23">
+        <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="D41" s="13"/>
-      <c r="E41" s="25">
+      <c r="E41" s="24">
         <v>38</v>
       </c>
       <c r="F41" s="9"/>
-      <c r="G41" s="26">
+      <c r="G41" s="25">
         <v>7</v>
       </c>
       <c r="H41" s="15"/>
-      <c r="I41" s="25">
+      <c r="I41" s="24">
         <v>55</v>
       </c>
       <c r="J41" s="9"/>
-      <c r="K41" s="26">
+      <c r="K41" s="25">
         <v>14</v>
       </c>
       <c r="L41" s="15"/>
@@ -7413,7 +8368,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="15"/>
-      <c r="Q41" s="25">
+      <c r="Q41" s="24">
         <v>9</v>
       </c>
       <c r="R41" s="9"/>
@@ -7434,24 +8389,24 @@
         <v>39</v>
       </c>
       <c r="B42" s="12"/>
-      <c r="C42" s="24">
-        <f t="shared" si="2"/>
+      <c r="C42" s="23">
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="D42" s="13"/>
-      <c r="E42" s="25">
+      <c r="E42" s="24">
         <v>17</v>
       </c>
       <c r="F42" s="9"/>
-      <c r="G42" s="26">
+      <c r="G42" s="25">
         <v>8</v>
       </c>
       <c r="H42" s="15"/>
-      <c r="I42" s="25">
+      <c r="I42" s="24">
         <v>48</v>
       </c>
       <c r="J42" s="9"/>
-      <c r="K42" s="26">
+      <c r="K42" s="25">
         <v>8</v>
       </c>
       <c r="L42" s="15"/>
@@ -7463,7 +8418,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="15"/>
-      <c r="Q42" s="25">
+      <c r="Q42" s="24">
         <v>9</v>
       </c>
       <c r="R42" s="9"/>
@@ -7484,24 +8439,24 @@
         <v>40</v>
       </c>
       <c r="B43" s="12"/>
-      <c r="C43" s="24">
-        <f t="shared" si="2"/>
+      <c r="C43" s="23">
+        <f t="shared" si="1"/>
         <v>162</v>
       </c>
       <c r="D43" s="13"/>
-      <c r="E43" s="25">
+      <c r="E43" s="24">
         <v>51</v>
       </c>
       <c r="F43" s="9"/>
-      <c r="G43" s="26">
+      <c r="G43" s="25">
         <v>18</v>
       </c>
       <c r="H43" s="15"/>
-      <c r="I43" s="25">
+      <c r="I43" s="24">
         <v>60</v>
       </c>
       <c r="J43" s="9"/>
-      <c r="K43" s="26">
+      <c r="K43" s="25">
         <v>15</v>
       </c>
       <c r="L43" s="15"/>
@@ -7513,7 +8468,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="15"/>
-      <c r="Q43" s="25">
+      <c r="Q43" s="24">
         <v>12</v>
       </c>
       <c r="R43" s="9"/>
@@ -7534,24 +8489,24 @@
         <v>41</v>
       </c>
       <c r="B44" s="12"/>
-      <c r="C44" s="24">
-        <f t="shared" si="2"/>
+      <c r="C44" s="23">
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="D44" s="13"/>
-      <c r="E44" s="25">
+      <c r="E44" s="24">
         <v>32</v>
       </c>
       <c r="F44" s="9"/>
-      <c r="G44" s="26">
+      <c r="G44" s="25">
         <v>3</v>
       </c>
       <c r="H44" s="15"/>
-      <c r="I44" s="25">
+      <c r="I44" s="24">
         <v>55</v>
       </c>
       <c r="J44" s="9"/>
-      <c r="K44" s="26">
+      <c r="K44" s="25">
         <v>3</v>
       </c>
       <c r="L44" s="15"/>
@@ -7563,7 +8518,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="15"/>
-      <c r="Q44" s="25">
+      <c r="Q44" s="24">
         <v>6</v>
       </c>
       <c r="R44" s="9"/>
@@ -7584,24 +8539,24 @@
         <v>42</v>
       </c>
       <c r="B45" s="12"/>
-      <c r="C45" s="24">
-        <f t="shared" si="2"/>
+      <c r="C45" s="23">
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="D45" s="13"/>
-      <c r="E45" s="25">
+      <c r="E45" s="24">
         <v>21</v>
       </c>
       <c r="F45" s="9"/>
-      <c r="G45" s="26">
+      <c r="G45" s="25">
         <v>5</v>
       </c>
       <c r="H45" s="15"/>
-      <c r="I45" s="25">
+      <c r="I45" s="24">
         <v>35</v>
       </c>
       <c r="J45" s="9"/>
-      <c r="K45" s="26">
+      <c r="K45" s="25">
         <v>6</v>
       </c>
       <c r="L45" s="15"/>
@@ -7613,7 +8568,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="15"/>
-      <c r="Q45" s="25">
+      <c r="Q45" s="24">
         <v>8</v>
       </c>
       <c r="R45" s="9"/>
@@ -7634,24 +8589,24 @@
         <v>43</v>
       </c>
       <c r="B46" s="12"/>
-      <c r="C46" s="24">
-        <f t="shared" si="2"/>
+      <c r="C46" s="23">
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="D46" s="13"/>
-      <c r="E46" s="25">
+      <c r="E46" s="24">
         <v>25</v>
       </c>
       <c r="F46" s="9"/>
-      <c r="G46" s="26">
+      <c r="G46" s="25">
         <v>6</v>
       </c>
       <c r="H46" s="15"/>
-      <c r="I46" s="25">
+      <c r="I46" s="24">
         <v>32</v>
       </c>
       <c r="J46" s="9"/>
-      <c r="K46" s="26">
+      <c r="K46" s="25">
         <v>9</v>
       </c>
       <c r="L46" s="15"/>
@@ -7663,7 +8618,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="15"/>
-      <c r="Q46" s="25">
+      <c r="Q46" s="24">
         <v>12</v>
       </c>
       <c r="R46" s="9"/>
@@ -7684,24 +8639,24 @@
         <v>53</v>
       </c>
       <c r="B47" s="21"/>
-      <c r="C47" s="24">
-        <f t="shared" si="2"/>
+      <c r="C47" s="23">
+        <f t="shared" si="1"/>
         <v>138</v>
       </c>
       <c r="D47" s="13"/>
-      <c r="E47" s="25">
+      <c r="E47" s="24">
         <v>49</v>
       </c>
       <c r="F47" s="9"/>
-      <c r="G47" s="26">
+      <c r="G47" s="25">
         <v>26</v>
       </c>
       <c r="H47" s="15"/>
-      <c r="I47" s="25">
+      <c r="I47" s="24">
         <v>32</v>
       </c>
       <c r="J47" s="9"/>
-      <c r="K47" s="26">
+      <c r="K47" s="25">
         <v>12</v>
       </c>
       <c r="L47" s="15"/>
@@ -7713,7 +8668,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="15"/>
-      <c r="Q47" s="25">
+      <c r="Q47" s="24">
         <v>15</v>
       </c>
       <c r="R47" s="9"/>
@@ -7734,24 +8689,24 @@
         <v>54</v>
       </c>
       <c r="B48" s="21"/>
-      <c r="C48" s="24">
-        <f t="shared" si="2"/>
+      <c r="C48" s="23">
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="D48" s="13"/>
-      <c r="E48" s="25">
+      <c r="E48" s="24">
         <v>26</v>
       </c>
       <c r="F48" s="9"/>
-      <c r="G48" s="26">
+      <c r="G48" s="25">
         <v>6</v>
       </c>
       <c r="H48" s="15"/>
-      <c r="I48" s="25">
+      <c r="I48" s="24">
         <v>37</v>
       </c>
       <c r="J48" s="9"/>
-      <c r="K48" s="26">
+      <c r="K48" s="25">
         <v>5</v>
       </c>
       <c r="L48" s="15"/>
@@ -7763,7 +8718,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="15"/>
-      <c r="Q48" s="25">
+      <c r="Q48" s="24">
         <v>2</v>
       </c>
       <c r="R48" s="9"/>
@@ -7784,24 +8739,24 @@
         <v>55</v>
       </c>
       <c r="B49" s="21"/>
-      <c r="C49" s="24">
-        <f t="shared" si="2"/>
+      <c r="C49" s="23">
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="D49" s="13"/>
-      <c r="E49" s="25">
+      <c r="E49" s="24">
         <v>14</v>
       </c>
       <c r="F49" s="9"/>
-      <c r="G49" s="26">
+      <c r="G49" s="25">
         <v>13</v>
       </c>
       <c r="H49" s="15"/>
-      <c r="I49" s="25">
+      <c r="I49" s="24">
         <v>49</v>
       </c>
       <c r="J49" s="9"/>
-      <c r="K49" s="26">
+      <c r="K49" s="25">
         <v>6</v>
       </c>
       <c r="L49" s="15"/>
@@ -7813,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="P49" s="15"/>
-      <c r="Q49" s="25">
+      <c r="Q49" s="24">
         <v>5</v>
       </c>
       <c r="R49" s="9"/>
@@ -7834,24 +8789,24 @@
         <v>56</v>
       </c>
       <c r="B50" s="21"/>
-      <c r="C50" s="24">
-        <f t="shared" si="2"/>
+      <c r="C50" s="23">
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="D50" s="13"/>
-      <c r="E50" s="25">
+      <c r="E50" s="24">
         <v>23</v>
       </c>
       <c r="F50" s="9"/>
-      <c r="G50" s="26">
+      <c r="G50" s="25">
         <v>6</v>
       </c>
       <c r="H50" s="15"/>
-      <c r="I50" s="25">
+      <c r="I50" s="24">
         <v>36</v>
       </c>
       <c r="J50" s="9"/>
-      <c r="K50" s="26">
+      <c r="K50" s="25">
         <v>6</v>
       </c>
       <c r="L50" s="15"/>
@@ -7863,7 +8818,7 @@
         <v>0</v>
       </c>
       <c r="P50" s="15"/>
-      <c r="Q50" s="25">
+      <c r="Q50" s="24">
         <v>0</v>
       </c>
       <c r="R50" s="9"/>
@@ -7884,24 +8839,24 @@
         <v>57</v>
       </c>
       <c r="B51" s="21"/>
-      <c r="C51" s="24">
-        <f t="shared" si="2"/>
+      <c r="C51" s="23">
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="D51" s="13"/>
-      <c r="E51" s="25">
+      <c r="E51" s="24">
         <v>28</v>
       </c>
       <c r="F51" s="9"/>
-      <c r="G51" s="26">
+      <c r="G51" s="25">
         <v>6</v>
       </c>
       <c r="H51" s="15"/>
-      <c r="I51" s="25">
+      <c r="I51" s="24">
         <v>47</v>
       </c>
       <c r="J51" s="9"/>
-      <c r="K51" s="26">
+      <c r="K51" s="25">
         <v>8</v>
       </c>
       <c r="L51" s="15"/>
@@ -7913,7 +8868,7 @@
         <v>0</v>
       </c>
       <c r="P51" s="15"/>
-      <c r="Q51" s="25">
+      <c r="Q51" s="24">
         <v>6</v>
       </c>
       <c r="R51" s="9"/>
@@ -8005,35 +8960,35 @@
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f>SUM(Tabulka!D3:E51)</f>
-        <v>1811</v>
+        <v>2213</v>
       </c>
       <c r="C5" s="1">
         <f>SUM(Tabulka!F3:G51)</f>
-        <v>430</v>
+        <v>657</v>
       </c>
       <c r="D5" s="1">
         <f>SUM(Tabulka!H3:I51)</f>
-        <v>1234</v>
+        <v>2111</v>
       </c>
       <c r="E5" s="1">
         <f>SUM(Tabulka!J3:K51)</f>
-        <v>559</v>
+        <v>798</v>
       </c>
       <c r="F5" s="1">
         <f>SUM(Tabulka!L3:M51)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G5" s="1">
         <f>SUM(Tabulka!N3:O51)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
         <f>SUM(Tabulka!P3:Q51)</f>
-        <v>158</v>
+        <v>382</v>
       </c>
       <c r="I5" s="1">
         <f>SUM(Tabulka!R3:S51)</f>
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="J5" s="1">
         <f>SUM(Tabulka!T3:U51)</f>
@@ -8041,7 +8996,7 @@
       </c>
       <c r="K5" s="1">
         <f>SUM(Tabulka!V3:W51)</f>
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Input/netopyri_chynov.xlsx
+++ b/Data/Input/netopyri_chynov.xlsx
@@ -23,11 +23,458 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>FXK</author>
     <author>František Krejča</author>
-    <author>FXK</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>J:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+15. 2. 1977</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>J:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+12. 12. 1977</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Anděra, Zbytovský:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+11. 1. 1979</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>J:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+21. 2. 1980</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>J:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+10. 2. 1981</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Anděra, Zbytovský:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+17. 12. 1981</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Anděra, Zbytovský:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+13. 2. 1982</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Anděra, Zbytovský:
+16. 12. 1982</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Anděra Zbytovský:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+24. 2. 1983</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Anděra, Zbytovský:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+21. 12. 1983</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Anděra, Zbytovský:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+25. 2. 1984</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Anděra, Zbytovský:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+15. 12. 1984</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Anděra, Zbytovský:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+27. 2. 1985</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Anděra, Zbytovský:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+15. 12. 1985</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C12" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Anděra, Zbytovský:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+19. 2. 1986</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Anděra, Zbytovský:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+22. 12. 1986</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Anděra, Zbytovský:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+26. 2. 1987</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Anděra, Zbytovský:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+16. 12. 1987</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Anděra, Zbytovský:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+17. 2. 1988</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +498,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C15" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +522,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="B16" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +546,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0">
+    <comment ref="C16" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -123,7 +570,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0" shapeId="0">
+    <comment ref="B17" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -147,7 +594,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C17" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -171,7 +618,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0">
+    <comment ref="B18" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -195,7 +642,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0">
+    <comment ref="C18" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -219,7 +666,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0">
+    <comment ref="B19" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -243,7 +690,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0">
+    <comment ref="C19" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -267,7 +714,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="1" shapeId="0">
+    <comment ref="B20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -291,7 +738,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0">
+    <comment ref="C20" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -315,7 +762,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="1" shapeId="0">
+    <comment ref="B21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -339,7 +786,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0">
+    <comment ref="C21" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -363,7 +810,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0">
+    <comment ref="C22" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -387,7 +834,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="1" shapeId="0">
+    <comment ref="B23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -411,7 +858,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0">
+    <comment ref="C23" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -435,7 +882,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0" shapeId="0">
+    <comment ref="C24" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -459,7 +906,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0">
+    <comment ref="B25" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -483,7 +930,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0" shapeId="0">
+    <comment ref="C25" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -507,7 +954,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0">
+    <comment ref="B26" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -531,7 +978,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="0" shapeId="0">
+    <comment ref="C26" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -555,7 +1002,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B27" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -579,7 +1026,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C15" authorId="0" shapeId="0">
+    <comment ref="C27" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -603,7 +1050,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0" shapeId="0">
+    <comment ref="B28" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -627,7 +1074,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="1" shapeId="0">
+    <comment ref="C28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -651,7 +1098,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="0" shapeId="0">
+    <comment ref="B29" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -675,7 +1122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="1" shapeId="0">
+    <comment ref="C29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -699,7 +1146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0" shapeId="0">
+    <comment ref="B30" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -723,7 +1170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C18" authorId="1" shapeId="0">
+    <comment ref="C30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -747,7 +1194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B19" authorId="0" shapeId="0">
+    <comment ref="B31" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -771,7 +1218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0" shapeId="0">
+    <comment ref="C31" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -795,7 +1242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="0" shapeId="0">
+    <comment ref="B32" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -819,7 +1266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0">
+    <comment ref="C32" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -843,7 +1290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="0" shapeId="0">
+    <comment ref="B33" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -867,7 +1314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C21" authorId="0" shapeId="0">
+    <comment ref="C33" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -891,7 +1338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="0" shapeId="0">
+    <comment ref="B34" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -915,7 +1362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C22" authorId="0" shapeId="0">
+    <comment ref="C34" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -939,7 +1386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B23" authorId="0" shapeId="0">
+    <comment ref="B35" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -963,7 +1410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C23" authorId="1" shapeId="0">
+    <comment ref="C35" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -987,7 +1434,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="1" shapeId="0">
+    <comment ref="B36" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1011,7 +1458,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C24" authorId="1" shapeId="0">
+    <comment ref="C36" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1035,7 +1482,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B25" authorId="1" shapeId="0">
+    <comment ref="B37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1059,7 +1506,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C25" authorId="1" shapeId="0">
+    <comment ref="C37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1083,7 +1530,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B26" authorId="1" shapeId="0">
+    <comment ref="B38" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1107,7 +1554,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="1" shapeId="0">
+    <comment ref="C38" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1131,7 +1578,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B27" authorId="1" shapeId="0">
+    <comment ref="B39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1155,7 +1602,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C27" authorId="1" shapeId="0">
+    <comment ref="C39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1179,7 +1626,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B28" authorId="1" shapeId="0">
+    <comment ref="B40" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1203,7 +1650,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C28" authorId="1" shapeId="0">
+    <comment ref="C40" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1248,7 +1695,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B29" authorId="1" shapeId="0">
+    <comment ref="B41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1293,7 +1740,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C29" authorId="1" shapeId="0">
+    <comment ref="C41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1338,7 +1785,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B30" authorId="1" shapeId="0">
+    <comment ref="B42" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1384,7 +1831,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C30" authorId="1" shapeId="0">
+    <comment ref="C42" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1429,7 +1876,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="1" shapeId="0">
+    <comment ref="B43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1477,7 +1924,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C31" authorId="1" shapeId="0">
+    <comment ref="C43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1523,7 +1970,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B32" authorId="1" shapeId="0">
+    <comment ref="B44" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1568,7 +2015,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C32" authorId="1" shapeId="0">
+    <comment ref="C44" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1614,7 +2061,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B33" authorId="1" shapeId="0">
+    <comment ref="B45" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1659,7 +2106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C33" authorId="1" shapeId="0">
+    <comment ref="C45" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1705,7 +2152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B34" authorId="1" shapeId="0">
+    <comment ref="B46" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1750,7 +2197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C34" authorId="1" shapeId="0">
+    <comment ref="C46" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1796,7 +2243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B35" authorId="1" shapeId="0">
+    <comment ref="B47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1841,7 +2288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C35" authorId="1" shapeId="0">
+    <comment ref="C47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1887,7 +2334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B36" authorId="1" shapeId="0">
+    <comment ref="B48" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1932,7 +2379,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C36" authorId="1" shapeId="0">
+    <comment ref="C48" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1978,7 +2425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B37" authorId="1" shapeId="0">
+    <comment ref="B49" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2023,7 +2470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C37" authorId="1" shapeId="0">
+    <comment ref="C49" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2069,7 +2516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B38" authorId="1" shapeId="0">
+    <comment ref="B50" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2114,7 +2561,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C38" authorId="1" shapeId="0">
+    <comment ref="C50" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2160,7 +2607,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B39" authorId="1" shapeId="0">
+    <comment ref="B51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2205,1079 +2652,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C39" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>FXK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-7. 2. 2025
-teplota: +3</t>
-        </r>
-        <r>
-          <rPr>
-            <vertAlign val="superscript"/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>o</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">C
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B40" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>FXK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-17. 12. 2013</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C40" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>FXK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-12. 2. 2014
-teplota: 3</t>
-        </r>
-        <r>
-          <rPr>
-            <vertAlign val="superscript"/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>o</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>C</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B41" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>FXK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-15. 12. 2014
-teplota: 11</t>
-        </r>
-        <r>
-          <rPr>
-            <vertAlign val="superscript"/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>o</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>C</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C41" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>FXK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-5. 2. 2015
-teplota: - 4</t>
-        </r>
-        <r>
-          <rPr>
-            <vertAlign val="superscript"/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>o</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>C</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B42" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>FXK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-16. 12. 2015
-teplota: 6
-</t>
-        </r>
-        <r>
-          <rPr>
-            <vertAlign val="superscript"/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>o</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>C</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C42" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>FXK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-2. 2. 2016
-teplota: 10</t>
-        </r>
-        <r>
-          <rPr>
-            <vertAlign val="superscript"/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>o</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>C</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B43" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>FXK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-20. 12. 2016
-teplota: -3</t>
-        </r>
-        <r>
-          <rPr>
-            <vertAlign val="superscript"/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>o</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>C
-+ úhyn Plecotu auritus č. TP10595
-+ úhyn Eptesicus serotinus
-bez kroužku</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C43" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>FXK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-9. 2. 2017
-teplota: -1</t>
-        </r>
-        <r>
-          <rPr>
-            <vertAlign val="superscript"/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>o</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">C
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B44" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>FXK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-16. 12. 2018
-teplota: -1</t>
-        </r>
-        <r>
-          <rPr>
-            <vertAlign val="superscript"/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>o</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>C</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C44" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>FXK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-7. 2. 2018
-teplota: -2</t>
-        </r>
-        <r>
-          <rPr>
-            <vertAlign val="superscript"/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>o</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">C
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B45" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>FXK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-16. 12. 2018
-teplota: -4</t>
-        </r>
-        <r>
-          <rPr>
-            <vertAlign val="superscript"/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>o</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>C</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C45" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>FXK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-7. 2. 2019
-teplota: 1</t>
-        </r>
-        <r>
-          <rPr>
-            <vertAlign val="superscript"/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>o</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">C
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B46" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>FXK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-14. 12. 2019
-teplota: 2</t>
-        </r>
-        <r>
-          <rPr>
-            <vertAlign val="superscript"/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>o</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>C</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C46" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>FXK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-5. 2. 2020
-teplota: 1</t>
-        </r>
-        <r>
-          <rPr>
-            <vertAlign val="superscript"/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>o</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">C
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B47" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>FXK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-17. 12. 2020
-teplota: 2</t>
-        </r>
-        <r>
-          <rPr>
-            <vertAlign val="superscript"/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>o</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>C</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C47" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>FXK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-4. 2. 2021
-teplota: 6</t>
-        </r>
-        <r>
-          <rPr>
-            <vertAlign val="superscript"/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>o</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">C
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B48" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>FXK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-18. 12. 2021
-teplota: 4</t>
-        </r>
-        <r>
-          <rPr>
-            <vertAlign val="superscript"/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>o</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>C</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C48" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>FXK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-10. 2. 2022
-teplota: 8</t>
-        </r>
-        <r>
-          <rPr>
-            <vertAlign val="superscript"/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>o</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">C
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B49" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>FXK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-17. 12. 2022
-teplota: -3</t>
-        </r>
-        <r>
-          <rPr>
-            <vertAlign val="superscript"/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>o</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>C</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C49" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>FXK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-13. 2. 2023
-teplota: 3</t>
-        </r>
-        <r>
-          <rPr>
-            <vertAlign val="superscript"/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>o</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">C
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B50" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>FXK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-13. 12. 2023
-teplota: +5</t>
-        </r>
-        <r>
-          <rPr>
-            <vertAlign val="superscript"/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>o</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>C</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C50" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>FXK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-6. 2. 2024
-teplota: +4</t>
-        </r>
-        <r>
-          <rPr>
-            <vertAlign val="superscript"/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>o</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">C
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B51" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>FXK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-15. 12. 2024
-teplota: +2</t>
-        </r>
-        <r>
-          <rPr>
-            <vertAlign val="superscript"/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>o</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="238"/>
-          </rPr>
-          <t>C</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C51" authorId="1" shapeId="0">
+    <comment ref="C51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3773,7 +3148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3841,15 +3216,6 @@
     <xf numFmtId="49" fontId="1" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3883,14 +3249,14 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4947,34 +4313,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2213</c:v>
+                  <c:v>2104</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>657</c:v>
+                  <c:v>596</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2111</c:v>
+                  <c:v>1622</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>798</c:v>
+                  <c:v>745</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>382</c:v>
+                  <c:v>302</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>77</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5448,9 +4814,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T55" sqref="T55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5482,78 +4848,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="27" t="s">
+      <c r="B1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="Q1" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="R1" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="S1" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="T1" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="U1" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="V1" s="36" t="s">
+      <c r="V1" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="36" t="s">
+      <c r="W1" s="33" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="38"/>
+      <c r="A2" s="36"/>
       <c r="B2" s="5" t="s">
         <v>45</v>
       </c>
@@ -5626,70 +4992,50 @@
         <v>62</v>
       </c>
       <c r="B3" s="8">
-        <f t="shared" ref="B3:C39" si="0">SUM(D3,F3,H3,J3,L3,N3,P3,R3,T3,V3)</f>
-        <v>38</v>
+        <f>SUM(D3,F3,H3,J3,L3,N3,P3,R3,T3,V3)</f>
+        <v>0</v>
       </c>
       <c r="C3" s="3">
-        <f t="shared" si="0"/>
-        <v>106</v>
-      </c>
-      <c r="D3" s="9">
-        <v>16</v>
-      </c>
+        <f>SUM(E3,G3,I3,K3,M3,O3,Q3,S3,U3,W3)</f>
+        <v>14</v>
+      </c>
+      <c r="D3" s="9"/>
       <c r="E3" s="10">
-        <v>73</v>
-      </c>
-      <c r="F3" s="9">
-        <v>6</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F3" s="9"/>
       <c r="G3" s="10">
-        <v>9</v>
-      </c>
-      <c r="H3" s="11">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" s="9"/>
       <c r="I3" s="10">
-        <v>8</v>
-      </c>
-      <c r="J3" s="9">
-        <v>16</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J3" s="9"/>
       <c r="K3" s="10">
-        <v>16</v>
-      </c>
-      <c r="L3" s="9">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L3" s="9"/>
       <c r="M3" s="10">
-        <v>0</v>
-      </c>
-      <c r="N3" s="9">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N3" s="9"/>
       <c r="O3" s="10">
         <v>0</v>
       </c>
-      <c r="P3" s="11">
-        <v>0</v>
-      </c>
+      <c r="P3" s="9"/>
       <c r="Q3" s="10">
         <v>0</v>
       </c>
-      <c r="R3" s="9">
-        <v>0</v>
-      </c>
+      <c r="R3" s="9"/>
       <c r="S3" s="10">
         <v>0</v>
       </c>
-      <c r="T3" s="9">
-        <v>0</v>
-      </c>
+      <c r="T3" s="9"/>
       <c r="U3" s="10">
         <v>0</v>
       </c>
-      <c r="V3" s="9">
-        <v>0</v>
-      </c>
+      <c r="V3" s="9"/>
       <c r="W3" s="10">
         <v>0</v>
       </c>
@@ -5699,143 +5045,103 @@
         <v>61</v>
       </c>
       <c r="B4" s="8">
-        <f t="shared" si="0"/>
-        <v>41</v>
+        <f>SUM(D4,F4,H4,J4,L4,N4,P4,R4,T4,V4)</f>
+        <v>18</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" si="0"/>
-        <v>92</v>
+        <f>SUM(E4,G4,I4,K4,M4,O4,Q4,S4,U4,W4)</f>
+        <v>0</v>
       </c>
       <c r="D4" s="9">
-        <v>21</v>
-      </c>
-      <c r="E4" s="10">
-        <v>54</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E4" s="10"/>
       <c r="F4" s="9">
-        <v>8</v>
-      </c>
-      <c r="G4" s="10">
-        <v>14</v>
-      </c>
-      <c r="H4" s="11">
-        <v>5</v>
-      </c>
-      <c r="I4" s="10">
-        <v>11</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="9">
+        <v>3</v>
+      </c>
+      <c r="I4" s="10"/>
       <c r="J4" s="9">
-        <v>7</v>
-      </c>
-      <c r="K4" s="10">
-        <v>13</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="K4" s="10"/>
       <c r="L4" s="9">
         <v>0</v>
       </c>
-      <c r="M4" s="10">
-        <v>0</v>
-      </c>
+      <c r="M4" s="10"/>
       <c r="N4" s="9">
         <v>0</v>
       </c>
-      <c r="O4" s="10">
-        <v>0</v>
-      </c>
-      <c r="P4" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="10">
-        <v>0</v>
-      </c>
+      <c r="O4" s="10"/>
+      <c r="P4" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="10"/>
       <c r="R4" s="9">
         <v>0</v>
       </c>
-      <c r="S4" s="10">
-        <v>0</v>
-      </c>
+      <c r="S4" s="10"/>
       <c r="T4" s="9">
         <v>0</v>
       </c>
-      <c r="U4" s="10">
-        <v>0</v>
-      </c>
+      <c r="U4" s="10"/>
       <c r="V4" s="9">
         <v>0</v>
       </c>
-      <c r="W4" s="10">
-        <v>0</v>
-      </c>
+      <c r="W4" s="10"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B5" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(D5,F5,H5,J5,L5,N5,P5,R5,T5,V5)</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <f>SUM(E5,G5,I5,K5,M5,O5,Q5,S5,U5,W5)</f>
         <v>15</v>
       </c>
-      <c r="C5" s="3">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="D5" s="9">
-        <v>8</v>
-      </c>
+      <c r="D5" s="9"/>
       <c r="E5" s="10">
-        <v>33</v>
-      </c>
-      <c r="F5" s="9">
+        <v>10</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10">
         <v>1</v>
       </c>
-      <c r="G5" s="10">
-        <v>4</v>
-      </c>
-      <c r="H5" s="11">
-        <v>1</v>
-      </c>
+      <c r="H5" s="9"/>
       <c r="I5" s="10">
-        <v>12</v>
-      </c>
-      <c r="J5" s="9">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J5" s="9"/>
       <c r="K5" s="10">
         <v>2</v>
       </c>
-      <c r="L5" s="9">
-        <v>1</v>
-      </c>
+      <c r="L5" s="9"/>
       <c r="M5" s="10">
         <v>0</v>
       </c>
-      <c r="N5" s="9">
-        <v>0</v>
-      </c>
+      <c r="N5" s="9"/>
       <c r="O5" s="10">
         <v>0</v>
       </c>
-      <c r="P5" s="11">
-        <v>0</v>
-      </c>
+      <c r="P5" s="9"/>
       <c r="Q5" s="10">
-        <v>2</v>
-      </c>
-      <c r="R5" s="9">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R5" s="9"/>
       <c r="S5" s="10">
         <v>0</v>
       </c>
-      <c r="T5" s="9">
-        <v>0</v>
-      </c>
+      <c r="T5" s="9"/>
       <c r="U5" s="10">
         <v>0</v>
       </c>
-      <c r="V5" s="9">
-        <v>0</v>
-      </c>
+      <c r="V5" s="9"/>
       <c r="W5" s="10">
         <v>0</v>
       </c>
@@ -5845,70 +5151,50 @@
         <v>59</v>
       </c>
       <c r="B6" s="8">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f>SUM(D6,F6,H6,J6,L6,N6,P6,R6,T6,V6)</f>
+        <v>0</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="D6" s="9">
-        <v>9</v>
-      </c>
+        <f>SUM(E6,G6,I6,K6,M6,O6,Q6,S6,U6,W6)</f>
+        <v>11</v>
+      </c>
+      <c r="D6" s="9"/>
       <c r="E6" s="10">
-        <v>31</v>
-      </c>
-      <c r="F6" s="9">
-        <v>4</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F6" s="9"/>
       <c r="G6" s="10">
-        <v>10</v>
-      </c>
-      <c r="H6" s="11">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10">
         <v>2</v>
       </c>
-      <c r="I6" s="10">
-        <v>12</v>
-      </c>
-      <c r="J6" s="9">
-        <v>15</v>
-      </c>
+      <c r="J6" s="9"/>
       <c r="K6" s="10">
-        <v>14</v>
-      </c>
-      <c r="L6" s="9">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L6" s="9"/>
       <c r="M6" s="10">
         <v>0</v>
       </c>
-      <c r="N6" s="9">
-        <v>0</v>
-      </c>
+      <c r="N6" s="9"/>
       <c r="O6" s="10">
         <v>0</v>
       </c>
-      <c r="P6" s="11">
-        <v>0</v>
-      </c>
+      <c r="P6" s="9"/>
       <c r="Q6" s="10">
         <v>1</v>
       </c>
-      <c r="R6" s="9">
-        <v>0</v>
-      </c>
+      <c r="R6" s="9"/>
       <c r="S6" s="10">
         <v>0</v>
       </c>
-      <c r="T6" s="9">
-        <v>0</v>
-      </c>
+      <c r="T6" s="9"/>
       <c r="U6" s="10">
         <v>0</v>
       </c>
-      <c r="V6" s="9">
-        <v>0</v>
-      </c>
+      <c r="V6" s="9"/>
       <c r="W6" s="10">
         <v>0</v>
       </c>
@@ -5918,70 +5204,50 @@
         <v>58</v>
       </c>
       <c r="B7" s="8">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <f>SUM(D7,F7,H7,J7,L7,N7,P7,R7,T7,V7)</f>
+        <v>0</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
-      <c r="D7" s="9">
-        <v>12</v>
-      </c>
+        <f>SUM(E7,G7,I7,K7,M7,O7,Q7,S7,U7,W7)</f>
+        <v>10</v>
+      </c>
+      <c r="D7" s="9"/>
       <c r="E7" s="10">
-        <v>47</v>
-      </c>
-      <c r="F7" s="9">
-        <v>6</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F7" s="9"/>
       <c r="G7" s="10">
-        <v>6</v>
-      </c>
-      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10">
         <v>5</v>
       </c>
-      <c r="I7" s="10">
-        <v>15</v>
-      </c>
-      <c r="J7" s="9">
-        <v>4</v>
-      </c>
+      <c r="J7" s="9"/>
       <c r="K7" s="10">
-        <v>10</v>
-      </c>
-      <c r="L7" s="9">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L7" s="9"/>
       <c r="M7" s="10">
         <v>0</v>
       </c>
-      <c r="N7" s="9">
-        <v>0</v>
-      </c>
+      <c r="N7" s="9"/>
       <c r="O7" s="10">
         <v>0</v>
       </c>
-      <c r="P7" s="11">
-        <v>0</v>
-      </c>
+      <c r="P7" s="9"/>
       <c r="Q7" s="10">
         <v>0</v>
       </c>
-      <c r="R7" s="9">
-        <v>0</v>
-      </c>
+      <c r="R7" s="9"/>
       <c r="S7" s="10">
         <v>0</v>
       </c>
-      <c r="T7" s="9">
-        <v>0</v>
-      </c>
+      <c r="T7" s="9"/>
       <c r="U7" s="10">
         <v>0</v>
       </c>
-      <c r="V7" s="9">
-        <v>0</v>
-      </c>
+      <c r="V7" s="9"/>
       <c r="W7" s="10">
         <v>0</v>
       </c>
@@ -5991,39 +5257,39 @@
         <v>21</v>
       </c>
       <c r="B8" s="8">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f>SUM(D8,F8,H8,J8,L8,N8,P8,R8,T8,V8)</f>
+        <v>12</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" si="0"/>
-        <v>101</v>
+        <f>SUM(E8,G8,I8,K8,M8,O8,Q8,S8,U8,W8)</f>
+        <v>29</v>
       </c>
       <c r="D8" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E8" s="10">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10">
+        <v>4</v>
+      </c>
+      <c r="H8" s="9">
         <v>3</v>
       </c>
-      <c r="G8" s="10">
-        <v>9</v>
-      </c>
-      <c r="H8" s="11">
-        <v>6</v>
-      </c>
       <c r="I8" s="10">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J8" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K8" s="10">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="L8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="10">
         <v>0</v>
@@ -6034,17 +5300,17 @@
       <c r="O8" s="10">
         <v>0</v>
       </c>
-      <c r="P8" s="11">
-        <v>0</v>
+      <c r="P8" s="9">
+        <v>1</v>
       </c>
       <c r="Q8" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R8" s="9">
         <v>0</v>
       </c>
       <c r="S8" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T8" s="9">
         <v>0</v>
@@ -6064,36 +5330,36 @@
         <v>1</v>
       </c>
       <c r="B9" s="8">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <f>SUM(D9,F9,H9,J9,L9,N9,P9,R9,T9,V9)</f>
+        <v>4</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" si="0"/>
-        <v>67</v>
+        <f>SUM(E9,G9,I9,K9,M9,O9,Q9,S9,U9,W9)</f>
+        <v>20</v>
       </c>
       <c r="D9" s="9">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E9" s="10">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
+        <v>2</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10">
+        <v>2</v>
+      </c>
+      <c r="J9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="10">
-        <v>6</v>
-      </c>
-      <c r="H9" s="11">
-        <v>3</v>
-      </c>
-      <c r="I9" s="10">
-        <v>4</v>
-      </c>
-      <c r="J9" s="9">
-        <v>8</v>
-      </c>
       <c r="K9" s="10">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L9" s="9">
         <v>0</v>
@@ -6114,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" s="10">
         <v>0</v>
@@ -6136,42 +5402,61 @@
       <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="8">
+        <f>SUM(D10,F10,H10,J10,L10,N10,P10,R10,T10,V10)</f>
+        <v>37</v>
+      </c>
       <c r="C10" s="3">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="D10" s="9"/>
+        <f>SUM(E10,G10,I10,K10,M10,O10,Q10,S10,U10,W10)</f>
+        <v>49</v>
+      </c>
+      <c r="D10" s="9">
+        <v>19</v>
+      </c>
       <c r="E10" s="10">
-        <v>24</v>
-      </c>
-      <c r="F10" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="F10" s="9">
+        <v>5</v>
+      </c>
       <c r="G10" s="10">
+        <v>12</v>
+      </c>
+      <c r="H10" s="11">
+        <v>4</v>
+      </c>
+      <c r="I10" s="10">
         <v>2</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="10">
-        <v>6</v>
-      </c>
-      <c r="J10" s="9"/>
+      <c r="J10" s="9">
+        <v>8</v>
+      </c>
       <c r="K10" s="10">
-        <v>5</v>
-      </c>
-      <c r="L10" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
       <c r="M10" s="10">
         <v>0</v>
       </c>
-      <c r="N10" s="9"/>
+      <c r="N10" s="9">
+        <v>0</v>
+      </c>
       <c r="O10" s="10">
         <v>0</v>
       </c>
-      <c r="P10" s="11"/>
+      <c r="P10" s="11">
+        <v>1</v>
+      </c>
       <c r="Q10" s="10">
         <v>1</v>
       </c>
-      <c r="R10" s="9"/>
+      <c r="R10" s="9">
+        <v>0</v>
+      </c>
       <c r="S10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" s="9">
         <v>0</v>
@@ -6191,57 +5476,57 @@
         <v>3</v>
       </c>
       <c r="B11" s="8">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <f>SUM(D11,F11,H11,J11,L11,N11,P11,R11,T11,V11)</f>
+        <v>19</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" si="0"/>
-        <v>57</v>
+        <f>SUM(E11,G11,I11,K11,M11,O11,Q11,S11,U11,W11)</f>
+        <v>63</v>
       </c>
       <c r="D11" s="9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E11" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F11" s="9">
         <v>3</v>
       </c>
       <c r="G11" s="10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H11" s="11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I11" s="10">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J11" s="9">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K11" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L11" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M11" s="10">
         <v>0</v>
       </c>
       <c r="N11" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" s="11">
         <v>0</v>
       </c>
       <c r="Q11" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R11" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" s="10">
         <v>0</v>
@@ -6263,42 +5548,61 @@
       <c r="A12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="8">
+        <f>SUM(D12,F12,H12,J12,L12,N12,P12,R12,T12,V12)</f>
+        <v>14</v>
+      </c>
       <c r="C12" s="3">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="D12" s="9"/>
+        <f>SUM(E12,G12,I12,K12,M12,O12,Q12,S12,U12,W12)</f>
+        <v>25</v>
+      </c>
+      <c r="D12" s="9">
+        <v>5</v>
+      </c>
       <c r="E12" s="10">
-        <v>27</v>
-      </c>
-      <c r="F12" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="F12" s="9">
+        <v>4</v>
+      </c>
       <c r="G12" s="10">
-        <v>3</v>
-      </c>
-      <c r="H12" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="H12" s="11">
+        <v>5</v>
+      </c>
       <c r="I12" s="10">
-        <v>8</v>
-      </c>
-      <c r="J12" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
       <c r="K12" s="10">
-        <v>2</v>
-      </c>
-      <c r="L12" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
       <c r="M12" s="10">
-        <v>0</v>
-      </c>
-      <c r="N12" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
       <c r="O12" s="10">
         <v>0</v>
       </c>
-      <c r="P12" s="11"/>
+      <c r="P12" s="11">
+        <v>0</v>
+      </c>
       <c r="Q12" s="10">
         <v>0</v>
       </c>
-      <c r="R12" s="9"/>
+      <c r="R12" s="9">
+        <v>0</v>
+      </c>
       <c r="S12" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" s="9">
         <v>0</v>
@@ -6318,36 +5622,36 @@
         <v>5</v>
       </c>
       <c r="B13" s="8">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <f>SUM(D13,F13,H13,J13,L13,N13,P13,R13,T13,V13)</f>
+        <v>6</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" si="0"/>
-        <v>86</v>
+        <f>SUM(E13,G13,I13,K13,M13,O13,Q13,S13,U13,W13)</f>
+        <v>12</v>
       </c>
       <c r="D13" s="9">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E13" s="10">
-        <v>35</v>
-      </c>
-      <c r="F13" s="11">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1</v>
       </c>
       <c r="G13" s="10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H13" s="11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I13" s="10">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="J13" s="9">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="K13" s="10">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L13" s="9">
         <v>0</v>
@@ -6356,7 +5660,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="10">
         <v>0</v>
@@ -6391,42 +5695,42 @@
         <v>6</v>
       </c>
       <c r="B14" s="8">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <f>SUM(D14,F14,H14,J14,L14,N14,P14,R14,T14,V14)</f>
+        <v>16</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" si="0"/>
-        <v>56</v>
+        <f>SUM(E14,G14,I14,K14,M14,O14,Q14,S14,U14,W14)</f>
+        <v>30</v>
       </c>
       <c r="D14" s="9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E14" s="10">
-        <v>25</v>
-      </c>
-      <c r="F14" s="11">
+        <v>23</v>
+      </c>
+      <c r="F14" s="9">
+        <v>2</v>
+      </c>
+      <c r="G14" s="10">
         <v>3</v>
       </c>
-      <c r="G14" s="10">
+      <c r="H14" s="11">
+        <v>1</v>
+      </c>
+      <c r="I14" s="10">
+        <v>3</v>
+      </c>
+      <c r="J14" s="9">
         <v>7</v>
       </c>
-      <c r="H14" s="11">
-        <v>6</v>
-      </c>
-      <c r="I14" s="10">
-        <v>18</v>
-      </c>
-      <c r="J14" s="9">
-        <v>9</v>
-      </c>
       <c r="K14" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14" s="9">
         <v>0</v>
       </c>
       <c r="M14" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="9">
         <v>0</v>
@@ -6444,7 +5748,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T14" s="9">
         <v>0</v>
@@ -6464,36 +5768,36 @@
         <v>20</v>
       </c>
       <c r="B15" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(D15,F15,H15,J15,L15,N15,P15,R15,T15,V15)</f>
         <v>38</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" si="0"/>
-        <v>72</v>
+        <f>SUM(E15,G15,I15,K15,M15,O15,Q15,S15,U15,W15)</f>
+        <v>106</v>
       </c>
       <c r="D15" s="9">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E15" s="10">
-        <v>38</v>
-      </c>
-      <c r="F15" s="11">
-        <v>4</v>
+        <v>73</v>
+      </c>
+      <c r="F15" s="9">
+        <v>6</v>
       </c>
       <c r="G15" s="10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H15" s="11">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I15" s="10">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="J15" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K15" s="10">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="L15" s="9">
         <v>0</v>
@@ -6514,7 +5818,7 @@
         <v>0</v>
       </c>
       <c r="R15" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S15" s="10">
         <v>0</v>
@@ -6537,37 +5841,37 @@
         <v>19</v>
       </c>
       <c r="B16" s="8">
-        <f t="shared" si="0"/>
-        <v>45</v>
+        <f>SUM(D16,F16,H16,J16,L16,N16,P16,R16,T16,V16)</f>
+        <v>41</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" si="0"/>
-        <v>94</v>
+        <f>SUM(E16,G16,I16,K16,M16,O16,Q16,S16,U16,W16)</f>
+        <v>92</v>
       </c>
       <c r="D16" s="9">
+        <v>21</v>
+      </c>
+      <c r="E16" s="10">
+        <v>54</v>
+      </c>
+      <c r="F16" s="9">
+        <v>8</v>
+      </c>
+      <c r="G16" s="10">
+        <v>14</v>
+      </c>
+      <c r="H16" s="11">
+        <v>5</v>
+      </c>
+      <c r="I16" s="10">
+        <v>11</v>
+      </c>
+      <c r="J16" s="9">
+        <v>7</v>
+      </c>
+      <c r="K16" s="10">
         <v>13</v>
       </c>
-      <c r="E16" s="10">
-        <v>49</v>
-      </c>
-      <c r="F16" s="11">
-        <v>3</v>
-      </c>
-      <c r="G16" s="10">
-        <v>8</v>
-      </c>
-      <c r="H16" s="11">
-        <v>11</v>
-      </c>
-      <c r="I16" s="10">
-        <v>25</v>
-      </c>
-      <c r="J16" s="9">
-        <v>17</v>
-      </c>
-      <c r="K16" s="10">
-        <v>9</v>
-      </c>
       <c r="L16" s="9">
         <v>0</v>
       </c>
@@ -6587,10 +5891,10 @@
         <v>0</v>
       </c>
       <c r="R16" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T16" s="9">
         <v>0</v>
@@ -6610,39 +5914,39 @@
         <v>18</v>
       </c>
       <c r="B17" s="8">
-        <f t="shared" si="0"/>
-        <v>58</v>
+        <f>SUM(D17,F17,H17,J17,L17,N17,P17,R17,T17,V17)</f>
+        <v>15</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" si="0"/>
-        <v>114</v>
+        <f>SUM(E17,G17,I17,K17,M17,O17,Q17,S17,U17,W17)</f>
+        <v>53</v>
       </c>
       <c r="D17" s="9">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E17" s="10">
-        <v>65</v>
-      </c>
-      <c r="F17" s="11">
+        <v>33</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1</v>
+      </c>
+      <c r="G17" s="10">
         <v>4</v>
       </c>
-      <c r="G17" s="10">
-        <v>3</v>
-      </c>
       <c r="H17" s="11">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I17" s="10">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="J17" s="9">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="K17" s="10">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="L17" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="10">
         <v>0</v>
@@ -6654,16 +5958,16 @@
         <v>0</v>
       </c>
       <c r="P17" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R17" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="9">
         <v>0</v>
@@ -6683,60 +5987,60 @@
         <v>17</v>
       </c>
       <c r="B18" s="8">
-        <f t="shared" si="0"/>
-        <v>59</v>
+        <f>SUM(D18,F18,H18,J18,L18,N18,P18,R18,T18,V18)</f>
+        <v>30</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" si="0"/>
-        <v>79</v>
+        <f>SUM(E18,G18,I18,K18,M18,O18,Q18,S18,U18,W18)</f>
+        <v>68</v>
       </c>
       <c r="D18" s="9">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E18" s="10">
-        <v>44</v>
-      </c>
-      <c r="F18" s="11">
+        <v>31</v>
+      </c>
+      <c r="F18" s="9">
+        <v>4</v>
+      </c>
+      <c r="G18" s="10">
+        <v>10</v>
+      </c>
+      <c r="H18" s="11">
         <v>2</v>
       </c>
-      <c r="G18" s="10">
-        <v>3</v>
-      </c>
-      <c r="H18" s="11">
-        <v>17</v>
-      </c>
       <c r="I18" s="10">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J18" s="9">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K18" s="10">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="L18" s="9">
+        <v>0</v>
+      </c>
+      <c r="M18" s="10">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0</v>
+      </c>
+      <c r="O18" s="10">
+        <v>0</v>
+      </c>
+      <c r="P18" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="10">
         <v>1</v>
       </c>
-      <c r="M18" s="10">
-        <v>0</v>
-      </c>
-      <c r="N18" s="9">
-        <v>0</v>
-      </c>
-      <c r="O18" s="10">
-        <v>0</v>
-      </c>
-      <c r="P18" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="10">
-        <v>2</v>
-      </c>
       <c r="R18" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" s="9">
         <v>0</v>
@@ -6756,37 +6060,37 @@
         <v>16</v>
       </c>
       <c r="B19" s="8">
-        <f t="shared" si="0"/>
-        <v>48</v>
+        <f>SUM(D19,F19,H19,J19,L19,N19,P19,R19,T19,V19)</f>
+        <v>27</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <f>SUM(E19,G19,I19,K19,M19,O19,Q19,S19,U19,W19)</f>
+        <v>78</v>
       </c>
       <c r="D19" s="9">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E19" s="10">
-        <v>42</v>
-      </c>
-      <c r="F19" s="11">
-        <v>3</v>
+        <v>47</v>
+      </c>
+      <c r="F19" s="9">
+        <v>6</v>
       </c>
       <c r="G19" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H19" s="11">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I19" s="10">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="J19" s="9">
+        <v>4</v>
+      </c>
+      <c r="K19" s="10">
         <v>10</v>
       </c>
-      <c r="K19" s="10">
-        <v>9</v>
-      </c>
       <c r="L19" s="9">
         <v>0</v>
       </c>
@@ -6800,16 +6104,16 @@
         <v>0</v>
       </c>
       <c r="P19" s="11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R19" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S19" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T19" s="9">
         <v>0</v>
@@ -6828,39 +6132,39 @@
       <c r="A20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="12">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="C20" s="39">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="D20" s="13">
+      <c r="B20" s="8">
+        <f>SUM(D20,F20,H20,J20,L20,N20,P20,R20,T20,V20)</f>
+        <v>20</v>
+      </c>
+      <c r="C20" s="3">
+        <f>SUM(E20,G20,I20,K20,M20,O20,Q20,S20,U20,W20)</f>
+        <v>101</v>
+      </c>
+      <c r="D20" s="9">
+        <v>6</v>
+      </c>
+      <c r="E20" s="10">
+        <v>57</v>
+      </c>
+      <c r="F20" s="9">
+        <v>3</v>
+      </c>
+      <c r="G20" s="10">
         <v>9</v>
       </c>
-      <c r="E20" s="10">
-        <v>40</v>
-      </c>
-      <c r="F20" s="9">
-        <v>11</v>
-      </c>
-      <c r="G20" s="14">
-        <v>15</v>
-      </c>
-      <c r="H20" s="15">
-        <v>13</v>
+      <c r="H20" s="11">
+        <v>6</v>
       </c>
       <c r="I20" s="10">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J20" s="9">
-        <v>15</v>
-      </c>
-      <c r="K20" s="14">
-        <v>9</v>
-      </c>
-      <c r="L20" s="15">
+        <v>5</v>
+      </c>
+      <c r="K20" s="10">
+        <v>16</v>
+      </c>
+      <c r="L20" s="9">
         <v>0</v>
       </c>
       <c r="M20" s="10">
@@ -6869,26 +6173,26 @@
       <c r="N20" s="9">
         <v>0</v>
       </c>
-      <c r="O20" s="14">
-        <v>0</v>
-      </c>
-      <c r="P20" s="15">
-        <v>6</v>
+      <c r="O20" s="10">
+        <v>0</v>
+      </c>
+      <c r="P20" s="11">
+        <v>0</v>
       </c>
       <c r="Q20" s="10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R20" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T20" s="9">
         <v>0</v>
       </c>
       <c r="U20" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="9">
         <v>0</v>
@@ -6901,39 +6205,39 @@
       <c r="A21" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="12">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="C21" s="39">
-        <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-      <c r="D21" s="13">
-        <v>25</v>
+      <c r="B21" s="8">
+        <f>SUM(D21,F21,H21,J21,L21,N21,P21,R21,T21,V21)</f>
+        <v>32</v>
+      </c>
+      <c r="C21" s="3">
+        <f>SUM(E21,G21,I21,K21,M21,O21,Q21,S21,U21,W21)</f>
+        <v>67</v>
+      </c>
+      <c r="D21" s="9">
+        <v>19</v>
       </c>
       <c r="E21" s="10">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="F21" s="9">
-        <v>12</v>
-      </c>
-      <c r="G21" s="14">
-        <v>22</v>
-      </c>
-      <c r="H21" s="15">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="G21" s="10">
+        <v>6</v>
+      </c>
+      <c r="H21" s="11">
+        <v>3</v>
       </c>
       <c r="I21" s="10">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="J21" s="9">
-        <v>16</v>
-      </c>
-      <c r="K21" s="14">
-        <v>27</v>
-      </c>
-      <c r="L21" s="15">
+        <v>8</v>
+      </c>
+      <c r="K21" s="10">
+        <v>11</v>
+      </c>
+      <c r="L21" s="9">
         <v>0</v>
       </c>
       <c r="M21" s="10">
@@ -6942,20 +6246,20 @@
       <c r="N21" s="9">
         <v>0</v>
       </c>
-      <c r="O21" s="14">
-        <v>0</v>
-      </c>
-      <c r="P21" s="15">
-        <v>4</v>
+      <c r="O21" s="10">
+        <v>0</v>
+      </c>
+      <c r="P21" s="11">
+        <v>0</v>
       </c>
       <c r="Q21" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R21" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" s="9">
         <v>0</v>
@@ -6974,61 +6278,42 @@
       <c r="A22" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="12">
-        <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-      <c r="C22" s="39">
-        <f t="shared" si="0"/>
-        <v>183</v>
-      </c>
-      <c r="D22" s="13">
-        <v>22</v>
-      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="3">
+        <f>SUM(E22,G22,I22,K22,M22,O22,Q22,S22,U22,W22)</f>
+        <v>39</v>
+      </c>
+      <c r="D22" s="9"/>
       <c r="E22" s="10">
-        <v>79</v>
-      </c>
-      <c r="F22" s="9">
-        <v>15</v>
-      </c>
-      <c r="G22" s="14">
-        <v>25</v>
-      </c>
-      <c r="H22" s="15">
-        <v>18</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10">
+        <v>2</v>
+      </c>
+      <c r="H22" s="11"/>
       <c r="I22" s="10">
-        <v>49</v>
-      </c>
-      <c r="J22" s="9">
-        <v>18</v>
-      </c>
-      <c r="K22" s="14">
-        <v>25</v>
-      </c>
-      <c r="L22" s="15">
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="K22" s="10">
+        <v>5</v>
+      </c>
+      <c r="L22" s="9"/>
       <c r="M22" s="10">
         <v>0</v>
       </c>
-      <c r="N22" s="9">
-        <v>0</v>
-      </c>
-      <c r="O22" s="14">
-        <v>0</v>
-      </c>
-      <c r="P22" s="15">
-        <v>10</v>
-      </c>
+      <c r="N22" s="9"/>
+      <c r="O22" s="10">
+        <v>0</v>
+      </c>
+      <c r="P22" s="11"/>
       <c r="Q22" s="10">
-        <v>3</v>
-      </c>
-      <c r="R22" s="9">
         <v>1</v>
       </c>
+      <c r="R22" s="9"/>
       <c r="S22" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T22" s="9">
         <v>0</v>
@@ -7047,39 +6332,39 @@
       <c r="A23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="12">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="C23" s="39">
-        <f t="shared" si="0"/>
-        <v>121</v>
-      </c>
-      <c r="D23" s="13">
-        <v>12</v>
+      <c r="B23" s="8">
+        <f>SUM(D23,F23,H23,J23,L23,N23,P23,R23,T23,V23)</f>
+        <v>29</v>
+      </c>
+      <c r="C23" s="3">
+        <f>SUM(E23,G23,I23,K23,M23,O23,Q23,S23,U23,W23)</f>
+        <v>57</v>
+      </c>
+      <c r="D23" s="9">
+        <v>9</v>
       </c>
       <c r="E23" s="10">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F23" s="9">
-        <v>6</v>
-      </c>
-      <c r="G23" s="14">
-        <v>14</v>
-      </c>
-      <c r="H23" s="15">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="G23" s="10">
+        <v>7</v>
+      </c>
+      <c r="H23" s="11">
+        <v>7</v>
       </c>
       <c r="I23" s="10">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J23" s="9">
         <v>9</v>
       </c>
-      <c r="K23" s="14">
-        <v>13</v>
-      </c>
-      <c r="L23" s="15">
+      <c r="K23" s="10">
+        <v>5</v>
+      </c>
+      <c r="L23" s="9">
         <v>0</v>
       </c>
       <c r="M23" s="10">
@@ -7088,20 +6373,20 @@
       <c r="N23" s="9">
         <v>0</v>
       </c>
-      <c r="O23" s="14">
-        <v>0</v>
-      </c>
-      <c r="P23" s="15">
-        <v>4</v>
+      <c r="O23" s="10">
+        <v>0</v>
+      </c>
+      <c r="P23" s="11">
+        <v>0</v>
       </c>
       <c r="Q23" s="10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R23" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S23" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T23" s="9">
         <v>0</v>
@@ -7120,61 +6405,42 @@
       <c r="A24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="12">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-      <c r="C24" s="39">
-        <f t="shared" si="0"/>
-        <v>108</v>
-      </c>
-      <c r="D24" s="13">
-        <v>15</v>
-      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="3">
+        <f>SUM(E24,G24,I24,K24,M24,O24,Q24,S24,U24,W24)</f>
+        <v>41</v>
+      </c>
+      <c r="D24" s="9"/>
       <c r="E24" s="10">
-        <v>28</v>
-      </c>
-      <c r="F24" s="9">
-        <v>10</v>
-      </c>
-      <c r="G24" s="14">
-        <v>7</v>
-      </c>
-      <c r="H24" s="15">
         <v>27</v>
       </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="10">
+        <v>3</v>
+      </c>
+      <c r="H24" s="11"/>
       <c r="I24" s="10">
-        <v>42</v>
-      </c>
-      <c r="J24" s="9">
-        <v>15</v>
-      </c>
-      <c r="K24" s="14">
-        <v>18</v>
-      </c>
-      <c r="L24" s="15">
-        <v>0</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="J24" s="9"/>
+      <c r="K24" s="10">
+        <v>2</v>
+      </c>
+      <c r="L24" s="9"/>
       <c r="M24" s="10">
         <v>0</v>
       </c>
-      <c r="N24" s="9">
-        <v>0</v>
-      </c>
-      <c r="O24" s="14">
-        <v>0</v>
-      </c>
-      <c r="P24" s="15">
-        <v>5</v>
-      </c>
+      <c r="N24" s="9"/>
+      <c r="O24" s="10">
+        <v>0</v>
+      </c>
+      <c r="P24" s="11"/>
       <c r="Q24" s="10">
-        <v>11</v>
-      </c>
-      <c r="R24" s="9">
+        <v>0</v>
+      </c>
+      <c r="R24" s="9"/>
+      <c r="S24" s="10">
         <v>1</v>
-      </c>
-      <c r="S24" s="10">
-        <v>2</v>
       </c>
       <c r="T24" s="9">
         <v>0</v>
@@ -7193,39 +6459,39 @@
       <c r="A25" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="12">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="C25" s="39">
-        <f t="shared" si="0"/>
-        <v>91</v>
-      </c>
-      <c r="D25" s="13">
+      <c r="B25" s="8">
+        <f>SUM(D25,F25,H25,J25,L25,N25,P25,R25,T25,V25)</f>
+        <v>44</v>
+      </c>
+      <c r="C25" s="3">
+        <f>SUM(E25,G25,I25,K25,M25,O25,Q25,S25,U25,W25)</f>
+        <v>86</v>
+      </c>
+      <c r="D25" s="9">
+        <v>17</v>
+      </c>
+      <c r="E25" s="10">
+        <v>35</v>
+      </c>
+      <c r="F25" s="11">
         <v>6</v>
       </c>
-      <c r="E25" s="10">
+      <c r="G25" s="10">
+        <v>7</v>
+      </c>
+      <c r="H25" s="11">
+        <v>8</v>
+      </c>
+      <c r="I25" s="10">
         <v>24</v>
       </c>
-      <c r="F25" s="9">
-        <v>11</v>
-      </c>
-      <c r="G25" s="14">
-        <v>12</v>
-      </c>
-      <c r="H25" s="15">
-        <v>16</v>
-      </c>
-      <c r="I25" s="10">
-        <v>37</v>
-      </c>
       <c r="J25" s="9">
-        <v>11</v>
-      </c>
-      <c r="K25" s="14">
-        <v>11</v>
-      </c>
-      <c r="L25" s="15">
+        <v>13</v>
+      </c>
+      <c r="K25" s="10">
+        <v>20</v>
+      </c>
+      <c r="L25" s="9">
         <v>0</v>
       </c>
       <c r="M25" s="10">
@@ -7234,17 +6500,17 @@
       <c r="N25" s="9">
         <v>0</v>
       </c>
-      <c r="O25" s="14">
-        <v>0</v>
-      </c>
-      <c r="P25" s="15">
-        <v>9</v>
+      <c r="O25" s="10">
+        <v>0</v>
+      </c>
+      <c r="P25" s="11">
+        <v>0</v>
       </c>
       <c r="Q25" s="10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R25" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25" s="10">
         <v>0</v>
@@ -7266,61 +6532,61 @@
       <c r="A26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="12">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="C26" s="39">
-        <f t="shared" si="0"/>
-        <v>79</v>
-      </c>
-      <c r="D26" s="13">
-        <v>3</v>
+      <c r="B26" s="8">
+        <f>SUM(D26,F26,H26,J26,L26,N26,P26,R26,T26,V26)</f>
+        <v>26</v>
+      </c>
+      <c r="C26" s="3">
+        <f>SUM(E26,G26,I26,K26,M26,O26,Q26,S26,U26,W26)</f>
+        <v>56</v>
+      </c>
+      <c r="D26" s="9">
+        <v>8</v>
       </c>
       <c r="E26" s="10">
         <v>25</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="11">
+        <v>3</v>
+      </c>
+      <c r="G26" s="10">
         <v>7</v>
       </c>
-      <c r="G26" s="14">
+      <c r="H26" s="11">
         <v>6</v>
       </c>
-      <c r="H26" s="15">
-        <v>10</v>
-      </c>
       <c r="I26" s="10">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J26" s="9">
-        <v>6</v>
-      </c>
-      <c r="K26" s="14">
-        <v>4</v>
-      </c>
-      <c r="L26" s="15">
+        <v>9</v>
+      </c>
+      <c r="K26" s="10">
+        <v>3</v>
+      </c>
+      <c r="L26" s="9">
         <v>0</v>
       </c>
       <c r="M26" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="9">
         <v>0</v>
       </c>
-      <c r="O26" s="14">
-        <v>0</v>
-      </c>
-      <c r="P26" s="15">
-        <v>5</v>
+      <c r="O26" s="10">
+        <v>0</v>
+      </c>
+      <c r="P26" s="11">
+        <v>0</v>
       </c>
       <c r="Q26" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R26" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T26" s="9">
         <v>0</v>
@@ -7329,49 +6595,49 @@
         <v>0</v>
       </c>
       <c r="V26" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W26" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="12">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="C27" s="39">
-        <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
-      <c r="D27" s="13">
-        <v>10</v>
+      <c r="B27" s="8">
+        <f>SUM(D27,F27,H27,J27,L27,N27,P27,R27,T27,V27)</f>
+        <v>38</v>
+      </c>
+      <c r="C27" s="3">
+        <f>SUM(E27,G27,I27,K27,M27,O27,Q27,S27,U27,W27)</f>
+        <v>72</v>
+      </c>
+      <c r="D27" s="9">
+        <v>13</v>
       </c>
       <c r="E27" s="10">
-        <v>18</v>
-      </c>
-      <c r="F27" s="9">
+        <v>38</v>
+      </c>
+      <c r="F27" s="11">
+        <v>4</v>
+      </c>
+      <c r="G27" s="10">
+        <v>6</v>
+      </c>
+      <c r="H27" s="11">
         <v>7</v>
       </c>
-      <c r="G27" s="14">
-        <v>5</v>
-      </c>
-      <c r="H27" s="15">
-        <v>17</v>
-      </c>
       <c r="I27" s="10">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="J27" s="9">
-        <v>5</v>
-      </c>
-      <c r="K27" s="14">
-        <v>9</v>
-      </c>
-      <c r="L27" s="15">
+        <v>12</v>
+      </c>
+      <c r="K27" s="10">
+        <v>7</v>
+      </c>
+      <c r="L27" s="9">
         <v>0</v>
       </c>
       <c r="M27" s="10">
@@ -7380,20 +6646,20 @@
       <c r="N27" s="9">
         <v>0</v>
       </c>
-      <c r="O27" s="14">
-        <v>0</v>
-      </c>
-      <c r="P27" s="15">
-        <v>6</v>
+      <c r="O27" s="10">
+        <v>0</v>
+      </c>
+      <c r="P27" s="11">
+        <v>0</v>
       </c>
       <c r="Q27" s="10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R27" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S27" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T27" s="9">
         <v>0</v>
@@ -7412,39 +6678,39 @@
       <c r="A28" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="12">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="C28" s="39">
-        <f t="shared" si="0"/>
-        <v>98</v>
-      </c>
-      <c r="D28" s="13">
-        <v>10</v>
+      <c r="B28" s="8">
+        <f>SUM(D28,F28,H28,J28,L28,N28,P28,R28,T28,V28)</f>
+        <v>45</v>
+      </c>
+      <c r="C28" s="3">
+        <f>SUM(E28,G28,I28,K28,M28,O28,Q28,S28,U28,W28)</f>
+        <v>94</v>
+      </c>
+      <c r="D28" s="9">
+        <v>13</v>
       </c>
       <c r="E28" s="10">
-        <v>28</v>
-      </c>
-      <c r="F28" s="9">
+        <v>49</v>
+      </c>
+      <c r="F28" s="11">
         <v>3</v>
       </c>
-      <c r="G28" s="14">
-        <v>7</v>
-      </c>
-      <c r="H28" s="15">
-        <v>15</v>
+      <c r="G28" s="10">
+        <v>8</v>
+      </c>
+      <c r="H28" s="11">
+        <v>11</v>
       </c>
       <c r="I28" s="10">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J28" s="9">
-        <v>6</v>
-      </c>
-      <c r="K28" s="14">
-        <v>7</v>
-      </c>
-      <c r="L28" s="15">
+        <v>17</v>
+      </c>
+      <c r="K28" s="10">
+        <v>9</v>
+      </c>
+      <c r="L28" s="9">
         <v>0</v>
       </c>
       <c r="M28" s="10">
@@ -7453,20 +6719,20 @@
       <c r="N28" s="9">
         <v>0</v>
       </c>
-      <c r="O28" s="14">
-        <v>0</v>
-      </c>
-      <c r="P28" s="15">
-        <v>6</v>
+      <c r="O28" s="10">
+        <v>0</v>
+      </c>
+      <c r="P28" s="11">
+        <v>0</v>
       </c>
       <c r="Q28" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R28" s="9">
         <v>1</v>
       </c>
       <c r="S28" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T28" s="9">
         <v>0</v>
@@ -7485,39 +6751,39 @@
       <c r="A29" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="12">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="C29" s="39">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="D29" s="13">
-        <v>6</v>
+      <c r="B29" s="8">
+        <f>SUM(D29,F29,H29,J29,L29,N29,P29,R29,T29,V29)</f>
+        <v>58</v>
+      </c>
+      <c r="C29" s="3">
+        <f>SUM(E29,G29,I29,K29,M29,O29,Q29,S29,U29,W29)</f>
+        <v>114</v>
+      </c>
+      <c r="D29" s="9">
+        <v>17</v>
       </c>
       <c r="E29" s="10">
-        <v>38</v>
-      </c>
-      <c r="F29" s="9">
-        <v>7</v>
-      </c>
-      <c r="G29" s="14">
-        <v>7</v>
-      </c>
-      <c r="H29" s="15">
-        <v>21</v>
+        <v>65</v>
+      </c>
+      <c r="F29" s="11">
+        <v>4</v>
+      </c>
+      <c r="G29" s="10">
+        <v>3</v>
+      </c>
+      <c r="H29" s="11">
+        <v>18</v>
       </c>
       <c r="I29" s="10">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="J29" s="9">
-        <v>10</v>
-      </c>
-      <c r="K29" s="14">
-        <v>14</v>
-      </c>
-      <c r="L29" s="15">
+        <v>17</v>
+      </c>
+      <c r="K29" s="10">
+        <v>13</v>
+      </c>
+      <c r="L29" s="9">
         <v>0</v>
       </c>
       <c r="M29" s="10">
@@ -7526,20 +6792,20 @@
       <c r="N29" s="9">
         <v>0</v>
       </c>
-      <c r="O29" s="14">
-        <v>0</v>
-      </c>
-      <c r="P29" s="15">
-        <v>5</v>
+      <c r="O29" s="10">
+        <v>0</v>
+      </c>
+      <c r="P29" s="11">
+        <v>1</v>
       </c>
       <c r="Q29" s="10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R29" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T29" s="9">
         <v>0</v>
@@ -7558,40 +6824,40 @@
       <c r="A30" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="12">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="C30" s="39">
-        <f t="shared" si="0"/>
-        <v>92</v>
-      </c>
-      <c r="D30" s="13">
-        <v>10</v>
+      <c r="B30" s="8">
+        <f>SUM(D30,F30,H30,J30,L30,N30,P30,R30,T30,V30)</f>
+        <v>59</v>
+      </c>
+      <c r="C30" s="3">
+        <f>SUM(E30,G30,I30,K30,M30,O30,Q30,S30,U30,W30)</f>
+        <v>79</v>
+      </c>
+      <c r="D30" s="9">
+        <v>30</v>
       </c>
       <c r="E30" s="10">
+        <v>44</v>
+      </c>
+      <c r="F30" s="11">
+        <v>2</v>
+      </c>
+      <c r="G30" s="10">
+        <v>3</v>
+      </c>
+      <c r="H30" s="11">
         <v>17</v>
       </c>
-      <c r="F30" s="9">
-        <v>13</v>
-      </c>
-      <c r="G30" s="14">
-        <v>8</v>
-      </c>
-      <c r="H30" s="15">
-        <v>23</v>
-      </c>
       <c r="I30" s="10">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="J30" s="9">
         <v>7</v>
       </c>
-      <c r="K30" s="14">
-        <v>8</v>
-      </c>
-      <c r="L30" s="15">
-        <v>0</v>
+      <c r="K30" s="10">
+        <v>7</v>
+      </c>
+      <c r="L30" s="9">
+        <v>1</v>
       </c>
       <c r="M30" s="10">
         <v>0</v>
@@ -7599,20 +6865,20 @@
       <c r="N30" s="9">
         <v>0</v>
       </c>
-      <c r="O30" s="14">
-        <v>0</v>
-      </c>
-      <c r="P30" s="15">
-        <v>8</v>
+      <c r="O30" s="10">
+        <v>0</v>
+      </c>
+      <c r="P30" s="11">
+        <v>1</v>
       </c>
       <c r="Q30" s="10">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R30" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T30" s="9">
         <v>0</v>
@@ -7631,39 +6897,39 @@
       <c r="A31" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="12">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="C31" s="39">
-        <f t="shared" si="0"/>
-        <v>162</v>
-      </c>
-      <c r="D31" s="13">
-        <v>18</v>
+      <c r="B31" s="8">
+        <f>SUM(D31,F31,H31,J31,L31,N31,P31,R31,T31,V31)</f>
+        <v>48</v>
+      </c>
+      <c r="C31" s="3">
+        <f>SUM(E31,G31,I31,K31,M31,O31,Q31,S31,U31,W31)</f>
+        <v>90</v>
+      </c>
+      <c r="D31" s="9">
+        <v>19</v>
       </c>
       <c r="E31" s="10">
-        <v>51</v>
-      </c>
-      <c r="F31" s="9">
-        <v>6</v>
-      </c>
-      <c r="G31" s="14">
-        <v>18</v>
-      </c>
-      <c r="H31" s="15">
-        <v>27</v>
+        <v>42</v>
+      </c>
+      <c r="F31" s="11">
+        <v>3</v>
+      </c>
+      <c r="G31" s="10">
+        <v>7</v>
+      </c>
+      <c r="H31" s="11">
+        <v>11</v>
       </c>
       <c r="I31" s="10">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="J31" s="9">
+        <v>10</v>
+      </c>
+      <c r="K31" s="10">
         <v>9</v>
       </c>
-      <c r="K31" s="14">
-        <v>15</v>
-      </c>
-      <c r="L31" s="15">
+      <c r="L31" s="9">
         <v>0</v>
       </c>
       <c r="M31" s="10">
@@ -7672,20 +6938,20 @@
       <c r="N31" s="9">
         <v>0</v>
       </c>
-      <c r="O31" s="14">
-        <v>0</v>
-      </c>
-      <c r="P31" s="15">
-        <v>7</v>
+      <c r="O31" s="10">
+        <v>0</v>
+      </c>
+      <c r="P31" s="11">
+        <v>3</v>
       </c>
       <c r="Q31" s="10">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="R31" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S31" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T31" s="9">
         <v>0</v>
@@ -7697,7 +6963,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.35">
@@ -7705,66 +6971,66 @@
         <v>25</v>
       </c>
       <c r="B32" s="12">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="C32" s="39">
-        <f t="shared" si="0"/>
-        <v>99</v>
+        <f>SUM(D32,F32,H32,J32,L32,N32,P32,R32,T32,V32)</f>
+        <v>55</v>
+      </c>
+      <c r="C32" s="34">
+        <f>SUM(E32,G32,I32,K32,M32,O32,Q32,S32,U32,W32)</f>
+        <v>105</v>
       </c>
       <c r="D32" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E32" s="10">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F32" s="9">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G32" s="14">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H32" s="15">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I32" s="10">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="J32" s="9">
+        <v>15</v>
+      </c>
+      <c r="K32" s="14">
+        <v>9</v>
+      </c>
+      <c r="L32" s="15">
+        <v>0</v>
+      </c>
+      <c r="M32" s="10">
+        <v>0</v>
+      </c>
+      <c r="N32" s="9">
+        <v>0</v>
+      </c>
+      <c r="O32" s="14">
+        <v>0</v>
+      </c>
+      <c r="P32" s="15">
         <v>6</v>
-      </c>
-      <c r="K32" s="14">
-        <v>3</v>
-      </c>
-      <c r="L32" s="15">
-        <v>0</v>
-      </c>
-      <c r="M32" s="10">
-        <v>0</v>
-      </c>
-      <c r="N32" s="9">
-        <v>0</v>
-      </c>
-      <c r="O32" s="14">
-        <v>0</v>
-      </c>
-      <c r="P32" s="15">
-        <v>13</v>
       </c>
       <c r="Q32" s="10">
         <v>6</v>
       </c>
       <c r="R32" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S32" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" s="9">
         <v>0</v>
       </c>
       <c r="U32" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V32" s="9">
         <v>0</v>
@@ -7778,60 +7044,60 @@
         <v>30</v>
       </c>
       <c r="B33" s="12">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="C33" s="39">
-        <f t="shared" si="0"/>
-        <v>78</v>
+        <f>SUM(D33,F33,H33,J33,L33,N33,P33,R33,T33,V33)</f>
+        <v>72</v>
+      </c>
+      <c r="C33" s="34">
+        <f>SUM(E33,G33,I33,K33,M33,O33,Q33,S33,U33,W33)</f>
+        <v>145</v>
       </c>
       <c r="D33" s="13">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E33" s="10">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="F33" s="9">
+        <v>12</v>
+      </c>
+      <c r="G33" s="14">
+        <v>22</v>
+      </c>
+      <c r="H33" s="15">
+        <v>15</v>
+      </c>
+      <c r="I33" s="10">
+        <v>30</v>
+      </c>
+      <c r="J33" s="9">
+        <v>16</v>
+      </c>
+      <c r="K33" s="14">
+        <v>27</v>
+      </c>
+      <c r="L33" s="15">
+        <v>0</v>
+      </c>
+      <c r="M33" s="10">
+        <v>0</v>
+      </c>
+      <c r="N33" s="9">
+        <v>0</v>
+      </c>
+      <c r="O33" s="14">
+        <v>0</v>
+      </c>
+      <c r="P33" s="15">
         <v>4</v>
       </c>
-      <c r="G33" s="14">
+      <c r="Q33" s="10">
         <v>5</v>
       </c>
-      <c r="H33" s="15">
-        <v>17</v>
-      </c>
-      <c r="I33" s="10">
-        <v>35</v>
-      </c>
-      <c r="J33" s="9">
-        <v>2</v>
-      </c>
-      <c r="K33" s="14">
-        <v>6</v>
-      </c>
-      <c r="L33" s="15">
-        <v>0</v>
-      </c>
-      <c r="M33" s="10">
-        <v>0</v>
-      </c>
-      <c r="N33" s="9">
-        <v>0</v>
-      </c>
-      <c r="O33" s="14">
-        <v>0</v>
-      </c>
-      <c r="P33" s="15">
-        <v>12</v>
-      </c>
-      <c r="Q33" s="10">
-        <v>8</v>
-      </c>
       <c r="R33" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S33" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T33" s="9">
         <v>0</v>
@@ -7851,36 +7117,36 @@
         <v>31</v>
       </c>
       <c r="B34" s="12">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="C34" s="39">
-        <f t="shared" si="0"/>
+        <f>SUM(D34,F34,H34,J34,L34,N34,P34,R34,T34,V34)</f>
         <v>84</v>
       </c>
+      <c r="C34" s="34">
+        <f>SUM(E34,G34,I34,K34,M34,O34,Q34,S34,U34,W34)</f>
+        <v>183</v>
+      </c>
       <c r="D34" s="13">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E34" s="10">
+        <v>79</v>
+      </c>
+      <c r="F34" s="9">
+        <v>15</v>
+      </c>
+      <c r="G34" s="14">
         <v>25</v>
       </c>
-      <c r="F34" s="9">
-        <v>8</v>
-      </c>
-      <c r="G34" s="14">
-        <v>6</v>
-      </c>
       <c r="H34" s="15">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I34" s="10">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="J34" s="9">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K34" s="14">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="L34" s="15">
         <v>0</v>
@@ -7895,16 +7161,16 @@
         <v>0</v>
       </c>
       <c r="P34" s="15">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q34" s="10">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="R34" s="9">
         <v>1</v>
       </c>
       <c r="S34" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T34" s="9">
         <v>0</v>
@@ -7923,58 +7189,58 @@
       <c r="A35" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="21">
-        <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-      <c r="C35" s="39">
-        <f t="shared" si="0"/>
-        <v>138</v>
+      <c r="B35" s="12">
+        <f>SUM(D35,F35,H35,J35,L35,N35,P35,R35,T35,V35)</f>
+        <v>47</v>
+      </c>
+      <c r="C35" s="34">
+        <f>SUM(E35,G35,I35,K35,M35,O35,Q35,S35,U35,W35)</f>
+        <v>121</v>
       </c>
       <c r="D35" s="13">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E35" s="10">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F35" s="9">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G35" s="14">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H35" s="15">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I35" s="10">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J35" s="9">
+        <v>9</v>
+      </c>
+      <c r="K35" s="14">
+        <v>13</v>
+      </c>
+      <c r="L35" s="15">
+        <v>0</v>
+      </c>
+      <c r="M35" s="10">
+        <v>0</v>
+      </c>
+      <c r="N35" s="9">
+        <v>0</v>
+      </c>
+      <c r="O35" s="14">
+        <v>0</v>
+      </c>
+      <c r="P35" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q35" s="10">
         <v>8</v>
       </c>
-      <c r="K35" s="14">
-        <v>12</v>
-      </c>
-      <c r="L35" s="15">
-        <v>0</v>
-      </c>
-      <c r="M35" s="10">
-        <v>0</v>
-      </c>
-      <c r="N35" s="9">
-        <v>0</v>
-      </c>
-      <c r="O35" s="14">
-        <v>0</v>
-      </c>
-      <c r="P35" s="15">
-        <v>15</v>
-      </c>
-      <c r="Q35" s="10">
-        <v>15</v>
-      </c>
       <c r="R35" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S35" s="10">
         <v>2</v>
@@ -7986,68 +7252,68 @@
         <v>0</v>
       </c>
       <c r="V35" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W35" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="21">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="C36" s="39">
-        <f t="shared" si="0"/>
-        <v>78</v>
+      <c r="B36" s="12">
+        <f>SUM(D36,F36,H36,J36,L36,N36,P36,R36,T36,V36)</f>
+        <v>73</v>
+      </c>
+      <c r="C36" s="34">
+        <f>SUM(E36,G36,I36,K36,M36,O36,Q36,S36,U36,W36)</f>
+        <v>108</v>
       </c>
       <c r="D36" s="13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E36" s="10">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F36" s="9">
         <v>10</v>
       </c>
       <c r="G36" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H36" s="15">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I36" s="10">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J36" s="9">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K36" s="14">
+        <v>18</v>
+      </c>
+      <c r="L36" s="15">
+        <v>0</v>
+      </c>
+      <c r="M36" s="10">
+        <v>0</v>
+      </c>
+      <c r="N36" s="9">
+        <v>0</v>
+      </c>
+      <c r="O36" s="14">
+        <v>0</v>
+      </c>
+      <c r="P36" s="15">
         <v>5</v>
       </c>
-      <c r="L36" s="15">
+      <c r="Q36" s="10">
+        <v>11</v>
+      </c>
+      <c r="R36" s="9">
         <v>1</v>
-      </c>
-      <c r="M36" s="10">
-        <v>0</v>
-      </c>
-      <c r="N36" s="9">
-        <v>0</v>
-      </c>
-      <c r="O36" s="14">
-        <v>0</v>
-      </c>
-      <c r="P36" s="15">
-        <v>4</v>
-      </c>
-      <c r="Q36" s="10">
-        <v>2</v>
-      </c>
-      <c r="R36" s="9">
-        <v>4</v>
       </c>
       <c r="S36" s="10">
         <v>2</v>
@@ -8069,37 +7335,37 @@
       <c r="A37" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="21">
-        <f t="shared" si="0"/>
+      <c r="B37" s="12">
+        <f>SUM(D37,F37,H37,J37,L37,N37,P37,R37,T37,V37)</f>
+        <v>54</v>
+      </c>
+      <c r="C37" s="34">
+        <f>SUM(E37,G37,I37,K37,M37,O37,Q37,S37,U37,W37)</f>
+        <v>91</v>
+      </c>
+      <c r="D37" s="13">
+        <v>6</v>
+      </c>
+      <c r="E37" s="10">
+        <v>24</v>
+      </c>
+      <c r="F37" s="9">
+        <v>11</v>
+      </c>
+      <c r="G37" s="14">
+        <v>12</v>
+      </c>
+      <c r="H37" s="15">
+        <v>16</v>
+      </c>
+      <c r="I37" s="10">
         <v>37</v>
       </c>
-      <c r="C37" s="39">
-        <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="D37" s="13">
-        <v>5</v>
-      </c>
-      <c r="E37" s="10">
-        <v>14</v>
-      </c>
-      <c r="F37" s="9">
-        <v>8</v>
-      </c>
-      <c r="G37" s="14">
-        <v>13</v>
-      </c>
-      <c r="H37" s="15">
-        <v>17</v>
-      </c>
-      <c r="I37" s="10">
-        <v>49</v>
-      </c>
       <c r="J37" s="9">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K37" s="14">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="L37" s="15">
         <v>0</v>
@@ -8114,13 +7380,13 @@
         <v>0</v>
       </c>
       <c r="P37" s="15">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q37" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R37" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37" s="10">
         <v>0</v>
@@ -8132,71 +7398,71 @@
         <v>0</v>
       </c>
       <c r="V37" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W37" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A38" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="21">
-        <f t="shared" si="0"/>
+      <c r="B38" s="12">
+        <f>SUM(D38,F38,H38,J38,L38,N38,P38,R38,T38,V38)</f>
         <v>33</v>
       </c>
-      <c r="C38" s="39">
-        <f t="shared" si="0"/>
-        <v>72</v>
+      <c r="C38" s="34">
+        <f>SUM(E38,G38,I38,K38,M38,O38,Q38,S38,U38,W38)</f>
+        <v>79</v>
       </c>
       <c r="D38" s="13">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E38" s="10">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F38" s="9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G38" s="14">
         <v>6</v>
       </c>
       <c r="H38" s="15">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I38" s="10">
         <v>36</v>
       </c>
       <c r="J38" s="9">
+        <v>6</v>
+      </c>
+      <c r="K38" s="14">
+        <v>4</v>
+      </c>
+      <c r="L38" s="15">
+        <v>0</v>
+      </c>
+      <c r="M38" s="10">
+        <v>0</v>
+      </c>
+      <c r="N38" s="9">
+        <v>0</v>
+      </c>
+      <c r="O38" s="14">
+        <v>0</v>
+      </c>
+      <c r="P38" s="15">
+        <v>5</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>4</v>
+      </c>
+      <c r="R38" s="9">
         <v>1</v>
       </c>
-      <c r="K38" s="14">
-        <v>6</v>
-      </c>
-      <c r="L38" s="15">
-        <v>0</v>
-      </c>
-      <c r="M38" s="10">
-        <v>0</v>
-      </c>
-      <c r="N38" s="9">
-        <v>0</v>
-      </c>
-      <c r="O38" s="14">
-        <v>0</v>
-      </c>
-      <c r="P38" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q38" s="10">
-        <v>0</v>
-      </c>
-      <c r="R38" s="9">
-        <v>0</v>
-      </c>
       <c r="S38" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T38" s="9">
         <v>0</v>
@@ -8205,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="V38" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W38" s="10">
         <v>1</v>
@@ -8215,61 +7481,61 @@
       <c r="A39" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="21">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="C39" s="39">
-        <f t="shared" si="0"/>
-        <v>95</v>
+      <c r="B39" s="12">
+        <f>SUM(D39,F39,H39,J39,L39,N39,P39,R39,T39,V39)</f>
+        <v>46</v>
+      </c>
+      <c r="C39" s="34">
+        <f>SUM(E39,G39,I39,K39,M39,O39,Q39,S39,U39,W39)</f>
+        <v>78</v>
       </c>
       <c r="D39" s="13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E39" s="10">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F39" s="9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G39" s="14">
+        <v>5</v>
+      </c>
+      <c r="H39" s="15">
+        <v>17</v>
+      </c>
+      <c r="I39" s="10">
+        <v>38</v>
+      </c>
+      <c r="J39" s="9">
+        <v>5</v>
+      </c>
+      <c r="K39" s="14">
+        <v>9</v>
+      </c>
+      <c r="L39" s="15">
+        <v>0</v>
+      </c>
+      <c r="M39" s="10">
+        <v>0</v>
+      </c>
+      <c r="N39" s="9">
+        <v>0</v>
+      </c>
+      <c r="O39" s="14">
+        <v>0</v>
+      </c>
+      <c r="P39" s="15">
         <v>6</v>
       </c>
-      <c r="H39" s="15">
-        <v>22</v>
-      </c>
-      <c r="I39" s="10">
-        <v>47</v>
-      </c>
-      <c r="J39" s="9">
-        <v>11</v>
-      </c>
-      <c r="K39" s="14">
-        <v>8</v>
-      </c>
-      <c r="L39" s="15">
-        <v>0</v>
-      </c>
-      <c r="M39" s="10">
-        <v>0</v>
-      </c>
-      <c r="N39" s="9">
-        <v>0</v>
-      </c>
-      <c r="O39" s="14">
-        <v>0</v>
-      </c>
-      <c r="P39" s="15">
-        <v>3</v>
-      </c>
       <c r="Q39" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R39" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S39" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" s="9">
         <v>0</v>
@@ -8278,7 +7544,7 @@
         <v>0</v>
       </c>
       <c r="V39" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W39" s="10">
         <v>0</v>
@@ -8288,48 +7554,71 @@
       <c r="A40" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="23">
-        <f t="shared" ref="C22:C51" si="1">SUM(E40,G40,I40,K40,M40,O40,Q40,S40,U40,W40)</f>
+      <c r="B40" s="12">
+        <f>SUM(D40,F40,H40,J40,L40,N40,P40,R40,T40,V40)</f>
+        <v>41</v>
+      </c>
+      <c r="C40" s="34">
+        <f>SUM(E40,G40,I40,K40,M40,O40,Q40,S40,U40,W40)</f>
         <v>98</v>
       </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="24">
+      <c r="D40" s="13">
+        <v>10</v>
+      </c>
+      <c r="E40" s="10">
         <v>28</v>
       </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="25">
+      <c r="F40" s="9">
+        <v>3</v>
+      </c>
+      <c r="G40" s="14">
         <v>7</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="24">
+      <c r="H40" s="15">
+        <v>15</v>
+      </c>
+      <c r="I40" s="10">
         <v>50</v>
       </c>
-      <c r="J40" s="9"/>
-      <c r="K40" s="25">
+      <c r="J40" s="9">
+        <v>6</v>
+      </c>
+      <c r="K40" s="14">
         <v>7</v>
       </c>
-      <c r="L40" s="15"/>
+      <c r="L40" s="15">
+        <v>0</v>
+      </c>
       <c r="M40" s="10">
         <v>0</v>
       </c>
-      <c r="N40" s="9"/>
+      <c r="N40" s="9">
+        <v>0</v>
+      </c>
       <c r="O40" s="14">
         <v>0</v>
       </c>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="24">
+      <c r="P40" s="15">
+        <v>6</v>
+      </c>
+      <c r="Q40" s="10">
         <v>5</v>
       </c>
-      <c r="R40" s="9"/>
+      <c r="R40" s="9">
+        <v>1</v>
+      </c>
       <c r="S40" s="10">
         <v>1</v>
       </c>
-      <c r="T40" s="9"/>
+      <c r="T40" s="9">
+        <v>0</v>
+      </c>
       <c r="U40" s="10">
         <v>0</v>
       </c>
-      <c r="V40" s="9"/>
+      <c r="V40" s="9">
+        <v>0</v>
+      </c>
       <c r="W40" s="10">
         <v>0</v>
       </c>
@@ -8338,48 +7627,71 @@
       <c r="A41" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="23">
-        <f t="shared" si="1"/>
+      <c r="B41" s="12">
+        <f>SUM(D41,F41,H41,J41,L41,N41,P41,R41,T41,V41)</f>
+        <v>49</v>
+      </c>
+      <c r="C41" s="34">
+        <f>SUM(E41,G41,I41,K41,M41,O41,Q41,S41,U41,W41)</f>
         <v>125</v>
       </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="24">
+      <c r="D41" s="13">
+        <v>6</v>
+      </c>
+      <c r="E41" s="10">
         <v>38</v>
       </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="25">
+      <c r="F41" s="9">
         <v>7</v>
       </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="24">
+      <c r="G41" s="14">
+        <v>7</v>
+      </c>
+      <c r="H41" s="15">
+        <v>21</v>
+      </c>
+      <c r="I41" s="10">
         <v>55</v>
       </c>
-      <c r="J41" s="9"/>
-      <c r="K41" s="25">
+      <c r="J41" s="9">
+        <v>10</v>
+      </c>
+      <c r="K41" s="14">
         <v>14</v>
       </c>
-      <c r="L41" s="15"/>
+      <c r="L41" s="15">
+        <v>0</v>
+      </c>
       <c r="M41" s="10">
         <v>0</v>
       </c>
-      <c r="N41" s="9"/>
+      <c r="N41" s="9">
+        <v>0</v>
+      </c>
       <c r="O41" s="14">
         <v>0</v>
       </c>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="24">
+      <c r="P41" s="15">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="10">
         <v>9</v>
       </c>
-      <c r="R41" s="9"/>
+      <c r="R41" s="9">
+        <v>0</v>
+      </c>
       <c r="S41" s="10">
         <v>2</v>
       </c>
-      <c r="T41" s="9"/>
+      <c r="T41" s="9">
+        <v>0</v>
+      </c>
       <c r="U41" s="10">
         <v>0</v>
       </c>
-      <c r="V41" s="9"/>
+      <c r="V41" s="9">
+        <v>0</v>
+      </c>
       <c r="W41" s="10">
         <v>0</v>
       </c>
@@ -8388,48 +7700,71 @@
       <c r="A42" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="23">
-        <f t="shared" si="1"/>
+      <c r="B42" s="12">
+        <f>SUM(D42,F42,H42,J42,L42,N42,P42,R42,T42,V42)</f>
+        <v>61</v>
+      </c>
+      <c r="C42" s="34">
+        <f>SUM(E42,G42,I42,K42,M42,O42,Q42,S42,U42,W42)</f>
         <v>92</v>
       </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="24">
+      <c r="D42" s="13">
+        <v>10</v>
+      </c>
+      <c r="E42" s="10">
         <v>17</v>
       </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="25">
+      <c r="F42" s="9">
+        <v>13</v>
+      </c>
+      <c r="G42" s="14">
         <v>8</v>
       </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="24">
+      <c r="H42" s="15">
+        <v>23</v>
+      </c>
+      <c r="I42" s="10">
         <v>48</v>
       </c>
-      <c r="J42" s="9"/>
-      <c r="K42" s="25">
+      <c r="J42" s="9">
+        <v>7</v>
+      </c>
+      <c r="K42" s="14">
         <v>8</v>
       </c>
-      <c r="L42" s="15"/>
+      <c r="L42" s="15">
+        <v>0</v>
+      </c>
       <c r="M42" s="10">
         <v>0</v>
       </c>
-      <c r="N42" s="9"/>
+      <c r="N42" s="9">
+        <v>0</v>
+      </c>
       <c r="O42" s="14">
         <v>0</v>
       </c>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="24">
+      <c r="P42" s="15">
+        <v>8</v>
+      </c>
+      <c r="Q42" s="10">
         <v>9</v>
       </c>
-      <c r="R42" s="9"/>
+      <c r="R42" s="9">
+        <v>0</v>
+      </c>
       <c r="S42" s="10">
         <v>2</v>
       </c>
-      <c r="T42" s="9"/>
+      <c r="T42" s="9">
+        <v>0</v>
+      </c>
       <c r="U42" s="10">
         <v>0</v>
       </c>
-      <c r="V42" s="9"/>
+      <c r="V42" s="9">
+        <v>0</v>
+      </c>
       <c r="W42" s="10">
         <v>0</v>
       </c>
@@ -8438,48 +7773,71 @@
       <c r="A43" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="23">
-        <f t="shared" si="1"/>
+      <c r="B43" s="12">
+        <f>SUM(D43,F43,H43,J43,L43,N43,P43,R43,T43,V43)</f>
+        <v>67</v>
+      </c>
+      <c r="C43" s="34">
+        <f>SUM(E43,G43,I43,K43,M43,O43,Q43,S43,U43,W43)</f>
         <v>162</v>
       </c>
-      <c r="D43" s="13"/>
-      <c r="E43" s="24">
+      <c r="D43" s="13">
+        <v>18</v>
+      </c>
+      <c r="E43" s="10">
         <v>51</v>
       </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="25">
+      <c r="F43" s="9">
+        <v>6</v>
+      </c>
+      <c r="G43" s="14">
         <v>18</v>
       </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="24">
+      <c r="H43" s="15">
+        <v>27</v>
+      </c>
+      <c r="I43" s="10">
         <v>60</v>
       </c>
-      <c r="J43" s="9"/>
-      <c r="K43" s="25">
+      <c r="J43" s="9">
+        <v>9</v>
+      </c>
+      <c r="K43" s="14">
         <v>15</v>
       </c>
-      <c r="L43" s="15"/>
+      <c r="L43" s="15">
+        <v>0</v>
+      </c>
       <c r="M43" s="10">
         <v>0</v>
       </c>
-      <c r="N43" s="9"/>
+      <c r="N43" s="9">
+        <v>0</v>
+      </c>
       <c r="O43" s="14">
         <v>0</v>
       </c>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="24">
+      <c r="P43" s="15">
+        <v>7</v>
+      </c>
+      <c r="Q43" s="10">
         <v>12</v>
       </c>
-      <c r="R43" s="9"/>
+      <c r="R43" s="9">
+        <v>0</v>
+      </c>
       <c r="S43" s="10">
         <v>1</v>
       </c>
-      <c r="T43" s="9"/>
+      <c r="T43" s="9">
+        <v>0</v>
+      </c>
       <c r="U43" s="10">
         <v>0</v>
       </c>
-      <c r="V43" s="9"/>
+      <c r="V43" s="9">
+        <v>0</v>
+      </c>
       <c r="W43" s="10">
         <v>5</v>
       </c>
@@ -8488,48 +7846,71 @@
       <c r="A44" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="23">
-        <f t="shared" si="1"/>
+      <c r="B44" s="12">
+        <f>SUM(D44,F44,H44,J44,L44,N44,P44,R44,T44,V44)</f>
+        <v>51</v>
+      </c>
+      <c r="C44" s="34">
+        <f>SUM(E44,G44,I44,K44,M44,O44,Q44,S44,U44,W44)</f>
         <v>99</v>
       </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="24">
+      <c r="D44" s="13">
+        <v>8</v>
+      </c>
+      <c r="E44" s="10">
         <v>32</v>
       </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="25">
+      <c r="F44" s="9">
+        <v>2</v>
+      </c>
+      <c r="G44" s="14">
         <v>3</v>
       </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="24">
+      <c r="H44" s="15">
+        <v>22</v>
+      </c>
+      <c r="I44" s="10">
         <v>55</v>
       </c>
-      <c r="J44" s="9"/>
-      <c r="K44" s="25">
+      <c r="J44" s="9">
+        <v>6</v>
+      </c>
+      <c r="K44" s="14">
         <v>3</v>
       </c>
-      <c r="L44" s="15"/>
+      <c r="L44" s="15">
+        <v>0</v>
+      </c>
       <c r="M44" s="10">
         <v>0</v>
       </c>
-      <c r="N44" s="9"/>
+      <c r="N44" s="9">
+        <v>0</v>
+      </c>
       <c r="O44" s="14">
         <v>0</v>
       </c>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="24">
+      <c r="P44" s="15">
+        <v>13</v>
+      </c>
+      <c r="Q44" s="10">
         <v>6</v>
       </c>
-      <c r="R44" s="9"/>
+      <c r="R44" s="9">
+        <v>0</v>
+      </c>
       <c r="S44" s="10">
         <v>0</v>
       </c>
-      <c r="T44" s="9"/>
+      <c r="T44" s="9">
+        <v>0</v>
+      </c>
       <c r="U44" s="10">
         <v>0</v>
       </c>
-      <c r="V44" s="9"/>
+      <c r="V44" s="9">
+        <v>0</v>
+      </c>
       <c r="W44" s="10">
         <v>0</v>
       </c>
@@ -8538,48 +7919,71 @@
       <c r="A45" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="23">
-        <f t="shared" si="1"/>
+      <c r="B45" s="12">
+        <f>SUM(D45,F45,H45,J45,L45,N45,P45,R45,T45,V45)</f>
+        <v>47</v>
+      </c>
+      <c r="C45" s="34">
+        <f>SUM(E45,G45,I45,K45,M45,O45,Q45,S45,U45,W45)</f>
         <v>78</v>
       </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="24">
+      <c r="D45" s="13">
+        <v>10</v>
+      </c>
+      <c r="E45" s="10">
         <v>21</v>
       </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="25">
+      <c r="F45" s="9">
+        <v>4</v>
+      </c>
+      <c r="G45" s="14">
         <v>5</v>
       </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="24">
+      <c r="H45" s="15">
+        <v>17</v>
+      </c>
+      <c r="I45" s="10">
         <v>35</v>
       </c>
-      <c r="J45" s="9"/>
-      <c r="K45" s="25">
+      <c r="J45" s="9">
+        <v>2</v>
+      </c>
+      <c r="K45" s="14">
         <v>6</v>
       </c>
-      <c r="L45" s="15"/>
+      <c r="L45" s="15">
+        <v>0</v>
+      </c>
       <c r="M45" s="10">
         <v>0</v>
       </c>
-      <c r="N45" s="9"/>
+      <c r="N45" s="9">
+        <v>0</v>
+      </c>
       <c r="O45" s="14">
         <v>0</v>
       </c>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="24">
+      <c r="P45" s="15">
+        <v>12</v>
+      </c>
+      <c r="Q45" s="10">
         <v>8</v>
       </c>
-      <c r="R45" s="9"/>
+      <c r="R45" s="9">
+        <v>2</v>
+      </c>
       <c r="S45" s="10">
         <v>3</v>
       </c>
-      <c r="T45" s="9"/>
+      <c r="T45" s="9">
+        <v>0</v>
+      </c>
       <c r="U45" s="10">
         <v>0</v>
       </c>
-      <c r="V45" s="9"/>
+      <c r="V45" s="9">
+        <v>0</v>
+      </c>
       <c r="W45" s="10">
         <v>0</v>
       </c>
@@ -8588,48 +7992,71 @@
       <c r="A46" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="23">
-        <f t="shared" si="1"/>
+      <c r="B46" s="12">
+        <f>SUM(D46,F46,H46,J46,L46,N46,P46,R46,T46,V46)</f>
+        <v>46</v>
+      </c>
+      <c r="C46" s="34">
+        <f>SUM(E46,G46,I46,K46,M46,O46,Q46,S46,U46,W46)</f>
         <v>84</v>
       </c>
-      <c r="D46" s="13"/>
-      <c r="E46" s="24">
+      <c r="D46" s="13">
+        <v>9</v>
+      </c>
+      <c r="E46" s="10">
         <v>25</v>
       </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="25">
+      <c r="F46" s="9">
+        <v>8</v>
+      </c>
+      <c r="G46" s="14">
         <v>6</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="24">
+      <c r="H46" s="15">
+        <v>11</v>
+      </c>
+      <c r="I46" s="10">
         <v>32</v>
       </c>
-      <c r="J46" s="9"/>
-      <c r="K46" s="25">
+      <c r="J46" s="9">
+        <v>5</v>
+      </c>
+      <c r="K46" s="14">
         <v>9</v>
       </c>
-      <c r="L46" s="15"/>
+      <c r="L46" s="15">
+        <v>0</v>
+      </c>
       <c r="M46" s="10">
         <v>0</v>
       </c>
-      <c r="N46" s="9"/>
+      <c r="N46" s="9">
+        <v>0</v>
+      </c>
       <c r="O46" s="14">
         <v>0</v>
       </c>
-      <c r="P46" s="15"/>
-      <c r="Q46" s="24">
+      <c r="P46" s="15">
         <v>12</v>
       </c>
-      <c r="R46" s="9"/>
+      <c r="Q46" s="10">
+        <v>12</v>
+      </c>
+      <c r="R46" s="9">
+        <v>1</v>
+      </c>
       <c r="S46" s="10">
         <v>0</v>
       </c>
-      <c r="T46" s="9"/>
+      <c r="T46" s="9">
+        <v>0</v>
+      </c>
       <c r="U46" s="10">
         <v>0</v>
       </c>
-      <c r="V46" s="9"/>
+      <c r="V46" s="9">
+        <v>0</v>
+      </c>
       <c r="W46" s="10">
         <v>0</v>
       </c>
@@ -8638,48 +8065,71 @@
       <c r="A47" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="23">
-        <f t="shared" si="1"/>
+      <c r="B47" s="21">
+        <f>SUM(D47,F47,H47,J47,L47,N47,P47,R47,T47,V47)</f>
+        <v>94</v>
+      </c>
+      <c r="C47" s="34">
+        <f>SUM(E47,G47,I47,K47,M47,O47,Q47,S47,U47,W47)</f>
         <v>138</v>
       </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="24">
+      <c r="D47" s="13">
+        <v>32</v>
+      </c>
+      <c r="E47" s="10">
         <v>49</v>
       </c>
-      <c r="F47" s="9"/>
-      <c r="G47" s="25">
+      <c r="F47" s="9">
+        <v>15</v>
+      </c>
+      <c r="G47" s="14">
         <v>26</v>
       </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="24">
+      <c r="H47" s="15">
+        <v>21</v>
+      </c>
+      <c r="I47" s="10">
         <v>32</v>
       </c>
-      <c r="J47" s="9"/>
-      <c r="K47" s="25">
+      <c r="J47" s="9">
+        <v>8</v>
+      </c>
+      <c r="K47" s="14">
         <v>12</v>
       </c>
-      <c r="L47" s="15"/>
+      <c r="L47" s="15">
+        <v>0</v>
+      </c>
       <c r="M47" s="10">
         <v>0</v>
       </c>
-      <c r="N47" s="9"/>
+      <c r="N47" s="9">
+        <v>0</v>
+      </c>
       <c r="O47" s="14">
         <v>0</v>
       </c>
-      <c r="P47" s="15"/>
-      <c r="Q47" s="24">
+      <c r="P47" s="15">
         <v>15</v>
       </c>
-      <c r="R47" s="9"/>
+      <c r="Q47" s="10">
+        <v>15</v>
+      </c>
+      <c r="R47" s="9">
+        <v>0</v>
+      </c>
       <c r="S47" s="10">
         <v>2</v>
       </c>
-      <c r="T47" s="9"/>
+      <c r="T47" s="9">
+        <v>0</v>
+      </c>
       <c r="U47" s="10">
         <v>0</v>
       </c>
-      <c r="V47" s="9"/>
+      <c r="V47" s="9">
+        <v>3</v>
+      </c>
       <c r="W47" s="10">
         <v>2</v>
       </c>
@@ -8688,48 +8138,71 @@
       <c r="A48" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="23">
-        <f t="shared" si="1"/>
+      <c r="B48" s="21">
+        <f>SUM(D48,F48,H48,J48,L48,N48,P48,R48,T48,V48)</f>
+        <v>56</v>
+      </c>
+      <c r="C48" s="34">
+        <f>SUM(E48,G48,I48,K48,M48,O48,Q48,S48,U48,W48)</f>
         <v>78</v>
       </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="24">
+      <c r="D48" s="13">
+        <v>13</v>
+      </c>
+      <c r="E48" s="10">
         <v>26</v>
       </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="25">
+      <c r="F48" s="9">
+        <v>10</v>
+      </c>
+      <c r="G48" s="14">
         <v>6</v>
       </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="24">
+      <c r="H48" s="15">
+        <v>17</v>
+      </c>
+      <c r="I48" s="10">
         <v>37</v>
       </c>
-      <c r="J48" s="9"/>
-      <c r="K48" s="25">
+      <c r="J48" s="9">
+        <v>7</v>
+      </c>
+      <c r="K48" s="14">
         <v>5</v>
       </c>
-      <c r="L48" s="15"/>
+      <c r="L48" s="15">
+        <v>1</v>
+      </c>
       <c r="M48" s="10">
         <v>0</v>
       </c>
-      <c r="N48" s="9"/>
+      <c r="N48" s="9">
+        <v>0</v>
+      </c>
       <c r="O48" s="14">
         <v>0</v>
       </c>
-      <c r="P48" s="15"/>
-      <c r="Q48" s="24">
+      <c r="P48" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="10">
         <v>2</v>
       </c>
-      <c r="R48" s="9"/>
+      <c r="R48" s="9">
+        <v>4</v>
+      </c>
       <c r="S48" s="10">
         <v>2</v>
       </c>
-      <c r="T48" s="9"/>
+      <c r="T48" s="9">
+        <v>0</v>
+      </c>
       <c r="U48" s="10">
         <v>0</v>
       </c>
-      <c r="V48" s="9"/>
+      <c r="V48" s="9">
+        <v>0</v>
+      </c>
       <c r="W48" s="10">
         <v>0</v>
       </c>
@@ -8738,48 +8211,71 @@
       <c r="A49" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="23">
-        <f t="shared" si="1"/>
+      <c r="B49" s="21">
+        <f>SUM(D49,F49,H49,J49,L49,N49,P49,R49,T49,V49)</f>
+        <v>37</v>
+      </c>
+      <c r="C49" s="34">
+        <f>SUM(E49,G49,I49,K49,M49,O49,Q49,S49,U49,W49)</f>
         <v>88</v>
       </c>
-      <c r="D49" s="13"/>
-      <c r="E49" s="24">
+      <c r="D49" s="13">
+        <v>5</v>
+      </c>
+      <c r="E49" s="10">
         <v>14</v>
       </c>
-      <c r="F49" s="9"/>
-      <c r="G49" s="25">
+      <c r="F49" s="9">
+        <v>8</v>
+      </c>
+      <c r="G49" s="14">
         <v>13</v>
       </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="24">
+      <c r="H49" s="15">
+        <v>17</v>
+      </c>
+      <c r="I49" s="10">
         <v>49</v>
       </c>
-      <c r="J49" s="9"/>
-      <c r="K49" s="25">
+      <c r="J49" s="9">
+        <v>2</v>
+      </c>
+      <c r="K49" s="14">
         <v>6</v>
       </c>
-      <c r="L49" s="15"/>
+      <c r="L49" s="15">
+        <v>0</v>
+      </c>
       <c r="M49" s="10">
         <v>0</v>
       </c>
-      <c r="N49" s="9"/>
+      <c r="N49" s="9">
+        <v>0</v>
+      </c>
       <c r="O49" s="14">
         <v>0</v>
       </c>
-      <c r="P49" s="15"/>
-      <c r="Q49" s="24">
+      <c r="P49" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="10">
         <v>5</v>
       </c>
-      <c r="R49" s="9"/>
+      <c r="R49" s="9">
+        <v>0</v>
+      </c>
       <c r="S49" s="10">
         <v>0</v>
       </c>
-      <c r="T49" s="9"/>
+      <c r="T49" s="9">
+        <v>0</v>
+      </c>
       <c r="U49" s="10">
         <v>0</v>
       </c>
-      <c r="V49" s="9"/>
+      <c r="V49" s="9">
+        <v>1</v>
+      </c>
       <c r="W49" s="10">
         <v>1</v>
       </c>
@@ -8788,48 +8284,71 @@
       <c r="A50" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="23">
-        <f t="shared" si="1"/>
+      <c r="B50" s="21">
+        <f>SUM(D50,F50,H50,J50,L50,N50,P50,R50,T50,V50)</f>
+        <v>33</v>
+      </c>
+      <c r="C50" s="34">
+        <f>SUM(E50,G50,I50,K50,M50,O50,Q50,S50,U50,W50)</f>
         <v>72</v>
       </c>
-      <c r="D50" s="13"/>
-      <c r="E50" s="24">
+      <c r="D50" s="13">
+        <v>10</v>
+      </c>
+      <c r="E50" s="10">
         <v>23</v>
       </c>
-      <c r="F50" s="9"/>
-      <c r="G50" s="25">
+      <c r="F50" s="9">
+        <v>3</v>
+      </c>
+      <c r="G50" s="14">
         <v>6</v>
       </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="24">
+      <c r="H50" s="15">
+        <v>17</v>
+      </c>
+      <c r="I50" s="10">
         <v>36</v>
       </c>
-      <c r="J50" s="9"/>
-      <c r="K50" s="25">
+      <c r="J50" s="9">
+        <v>1</v>
+      </c>
+      <c r="K50" s="14">
         <v>6</v>
       </c>
-      <c r="L50" s="15"/>
+      <c r="L50" s="15">
+        <v>0</v>
+      </c>
       <c r="M50" s="10">
         <v>0</v>
       </c>
-      <c r="N50" s="9"/>
+      <c r="N50" s="9">
+        <v>0</v>
+      </c>
       <c r="O50" s="14">
         <v>0</v>
       </c>
-      <c r="P50" s="15"/>
-      <c r="Q50" s="24">
-        <v>0</v>
-      </c>
-      <c r="R50" s="9"/>
+      <c r="P50" s="15">
+        <v>2</v>
+      </c>
+      <c r="Q50" s="10">
+        <v>0</v>
+      </c>
+      <c r="R50" s="9">
+        <v>0</v>
+      </c>
       <c r="S50" s="10">
         <v>0</v>
       </c>
-      <c r="T50" s="9"/>
+      <c r="T50" s="9">
+        <v>0</v>
+      </c>
       <c r="U50" s="10">
         <v>0</v>
       </c>
-      <c r="V50" s="9"/>
+      <c r="V50" s="9">
+        <v>0</v>
+      </c>
       <c r="W50" s="10">
         <v>1</v>
       </c>
@@ -8838,48 +8357,71 @@
       <c r="A51" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="21"/>
-      <c r="C51" s="23">
-        <f t="shared" si="1"/>
+      <c r="B51" s="21">
+        <f>SUM(D51,F51,H51,J51,L51,N51,P51,R51,T51,V51)</f>
+        <v>51</v>
+      </c>
+      <c r="C51" s="34">
+        <f>SUM(E51,G51,I51,K51,M51,O51,Q51,S51,U51,W51)</f>
         <v>95</v>
       </c>
-      <c r="D51" s="13"/>
-      <c r="E51" s="24">
+      <c r="D51" s="13">
+        <v>11</v>
+      </c>
+      <c r="E51" s="10">
         <v>28</v>
       </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="25">
+      <c r="F51" s="9">
+        <v>3</v>
+      </c>
+      <c r="G51" s="14">
         <v>6</v>
       </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="24">
+      <c r="H51" s="15">
+        <v>22</v>
+      </c>
+      <c r="I51" s="10">
         <v>47</v>
       </c>
-      <c r="J51" s="9"/>
-      <c r="K51" s="25">
+      <c r="J51" s="9">
+        <v>11</v>
+      </c>
+      <c r="K51" s="14">
         <v>8</v>
       </c>
-      <c r="L51" s="15"/>
+      <c r="L51" s="15">
+        <v>0</v>
+      </c>
       <c r="M51" s="10">
         <v>0</v>
       </c>
-      <c r="N51" s="9"/>
+      <c r="N51" s="9">
+        <v>0</v>
+      </c>
       <c r="O51" s="14">
         <v>0</v>
       </c>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="24">
+      <c r="P51" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q51" s="10">
         <v>6</v>
       </c>
-      <c r="R51" s="9"/>
+      <c r="R51" s="9">
+        <v>0</v>
+      </c>
       <c r="S51" s="10">
         <v>0</v>
       </c>
-      <c r="T51" s="9"/>
+      <c r="T51" s="9">
+        <v>0</v>
+      </c>
       <c r="U51" s="10">
         <v>0</v>
       </c>
-      <c r="V51" s="9"/>
+      <c r="V51" s="9">
+        <v>1</v>
+      </c>
       <c r="W51" s="10">
         <v>0</v>
       </c>
@@ -8960,35 +8502,35 @@
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f>SUM(Tabulka!D3:E51)</f>
-        <v>2213</v>
+        <v>2104</v>
       </c>
       <c r="C5" s="1">
         <f>SUM(Tabulka!F3:G51)</f>
-        <v>657</v>
+        <v>596</v>
       </c>
       <c r="D5" s="1">
         <f>SUM(Tabulka!H3:I51)</f>
-        <v>2111</v>
+        <v>1622</v>
       </c>
       <c r="E5" s="1">
         <f>SUM(Tabulka!J3:K51)</f>
-        <v>798</v>
+        <v>745</v>
       </c>
       <c r="F5" s="1">
         <f>SUM(Tabulka!L3:M51)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G5" s="1">
         <f>SUM(Tabulka!N3:O51)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H5" s="1">
         <f>SUM(Tabulka!P3:Q51)</f>
-        <v>382</v>
+        <v>302</v>
       </c>
       <c r="I5" s="1">
         <f>SUM(Tabulka!R3:S51)</f>
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="J5" s="1">
         <f>SUM(Tabulka!T3:U51)</f>
@@ -8996,7 +8538,7 @@
       </c>
       <c r="K5" s="1">
         <f>SUM(Tabulka!V3:W51)</f>
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
